--- a/inputs/data_raw/Data_SJPF_planInfo_AV2019.xlsx
+++ b/inputs/data_raw/Data_SJPF_planInfo_AV2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_SJ\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651E56CA-733B-4786-8450-8F0337B5B22F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B775F06-4247-4AEB-9287-78C959E0090B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init_unrecReturn" sheetId="12" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="init_amort_t1_raw" sheetId="14" r:id="rId3"/>
     <sheet name="init_amort_t2_raw" sheetId="20" r:id="rId4"/>
     <sheet name="Init_unrecReturn_raw" sheetId="19" r:id="rId5"/>
+    <sheet name="benfactor" sheetId="21" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="82">
   <si>
     <t>year</t>
   </si>
@@ -589,6 +590,24 @@
   </si>
   <si>
     <t>C7:J93</t>
+  </si>
+  <si>
+    <t>yos</t>
+  </si>
+  <si>
+    <t>1-19</t>
+  </si>
+  <si>
+    <t>21+</t>
+  </si>
+  <si>
+    <t>Service Ret</t>
+  </si>
+  <si>
+    <t>Disb Ret</t>
+  </si>
+  <si>
+    <t>'1-19</t>
   </si>
 </sst>
 </file>
@@ -756,7 +775,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -824,95 +843,71 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="4"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1002,6 +997,36 @@
     </xf>
     <xf numFmtId="6" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1246,6 +1271,143 @@
         <a:xfrm>
           <a:off x="7029450" y="219075"/>
           <a:ext cx="6373114" cy="6887536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>200994</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94CCBD4D-2D79-4097-AE51-A5B90BB1CE33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886700" y="514350"/>
+          <a:ext cx="6944694" cy="1609950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>29643</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>124371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D98902D1-BE01-4974-8763-2036433CAC13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10058400" y="781050"/>
+          <a:ext cx="7649643" cy="3915321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>391558</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>67429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3FE2751-78AF-4D48-AF88-8F7799185644}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="2286000"/>
+          <a:ext cx="7401958" cy="5401429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1612,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FFFA73-2D4A-4AA3-8BAA-C57267D0CB48}">
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1732,10 +1894,10 @@
         <v>71</v>
       </c>
       <c r="D8" s="21"/>
-      <c r="E8" s="77">
+      <c r="E8" s="69">
         <v>38533</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="70">
         <v>2</v>
       </c>
       <c r="G8" s="22">
@@ -1756,10 +1918,10 @@
         <v>71</v>
       </c>
       <c r="D9" s="20"/>
-      <c r="E9" s="79">
+      <c r="E9" s="71">
         <v>38533</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="70">
         <v>2</v>
       </c>
       <c r="G9" s="23">
@@ -1780,10 +1942,10 @@
         <v>71</v>
       </c>
       <c r="D10" s="20"/>
-      <c r="E10" s="79">
+      <c r="E10" s="71">
         <v>39263</v>
       </c>
-      <c r="F10" s="78">
+      <c r="F10" s="70">
         <v>4</v>
       </c>
       <c r="G10" s="23">
@@ -1804,10 +1966,10 @@
         <v>71</v>
       </c>
       <c r="D11" s="20"/>
-      <c r="E11" s="79">
+      <c r="E11" s="71">
         <v>39263</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="70">
         <v>7</v>
       </c>
       <c r="G11" s="23">
@@ -1828,10 +1990,10 @@
         <v>71</v>
       </c>
       <c r="D12" s="20"/>
-      <c r="E12" s="79">
+      <c r="E12" s="71">
         <v>39263</v>
       </c>
-      <c r="F12" s="78">
+      <c r="F12" s="70">
         <v>8</v>
       </c>
       <c r="G12" s="23">
@@ -1852,10 +2014,10 @@
         <v>71</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="E13" s="79">
+      <c r="E13" s="71">
         <v>39994</v>
       </c>
-      <c r="F13" s="78">
+      <c r="F13" s="70">
         <v>7</v>
       </c>
       <c r="G13" s="23">
@@ -1875,13 +2037,13 @@
       <c r="C14" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E14" s="72">
         <v>39994</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F14" s="73">
         <v>10</v>
       </c>
-      <c r="G14" s="82">
+      <c r="G14" s="74">
         <v>39308.420560747662</v>
       </c>
       <c r="H14" s="16" t="s">
@@ -1898,13 +2060,13 @@
       <c r="C15" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="80">
+      <c r="E15" s="72">
         <v>40359</v>
       </c>
-      <c r="F15" s="81">
+      <c r="F15" s="73">
         <v>7</v>
       </c>
-      <c r="G15" s="82">
+      <c r="G15" s="74">
         <v>47368.673854016932</v>
       </c>
       <c r="H15" s="16" t="s">
@@ -1921,13 +2083,13 @@
       <c r="C16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="80">
+      <c r="E16" s="72">
         <v>40359</v>
       </c>
-      <c r="F16" s="81">
+      <c r="F16" s="73">
         <v>11</v>
       </c>
-      <c r="G16" s="82">
+      <c r="G16" s="74">
         <v>31019.164437078252</v>
       </c>
       <c r="H16" s="16" t="s">
@@ -1944,13 +2106,13 @@
       <c r="C17" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="80">
+      <c r="E17" s="72">
         <v>40724</v>
       </c>
-      <c r="F17" s="81">
+      <c r="F17" s="73">
         <v>7</v>
       </c>
-      <c r="G17" s="82">
+      <c r="G17" s="74">
         <v>-80133.174591685805</v>
       </c>
       <c r="H17" s="16" t="s">
@@ -1967,13 +2129,13 @@
       <c r="C18" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="72">
         <v>40724</v>
       </c>
-      <c r="F18" s="81">
+      <c r="F18" s="73">
         <v>12</v>
       </c>
-      <c r="G18" s="82">
+      <c r="G18" s="74">
         <v>21380.750137892996</v>
       </c>
       <c r="H18" s="16" t="s">
@@ -1990,13 +2152,13 @@
       <c r="C19" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="80">
+      <c r="E19" s="72">
         <v>41090</v>
       </c>
-      <c r="F19" s="81">
+      <c r="F19" s="73">
         <v>9</v>
       </c>
-      <c r="G19" s="82">
+      <c r="G19" s="74">
         <v>45698.075914800655</v>
       </c>
       <c r="H19" s="16" t="s">
@@ -2013,13 +2175,13 @@
       <c r="C20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="80">
+      <c r="E20" s="72">
         <v>41090</v>
       </c>
-      <c r="F20" s="81">
+      <c r="F20" s="73">
         <v>9</v>
       </c>
-      <c r="G20" s="82">
+      <c r="G20" s="74">
         <v>-11148.187849944008</v>
       </c>
       <c r="H20" s="16" t="s">
@@ -2036,13 +2198,13 @@
       <c r="C21" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="80">
+      <c r="E21" s="72">
         <v>41090</v>
       </c>
-      <c r="F21" s="81">
+      <c r="F21" s="73">
         <v>13</v>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="74">
         <v>42556.252259332025</v>
       </c>
       <c r="H21" s="16" t="s">
@@ -2059,13 +2221,13 @@
       <c r="C22" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="80">
+      <c r="E22" s="72">
         <v>41455</v>
       </c>
-      <c r="F22" s="81">
+      <c r="F22" s="73">
         <v>10</v>
       </c>
-      <c r="G22" s="82">
+      <c r="G22" s="74">
         <v>29451.170593670595</v>
       </c>
       <c r="H22" s="16" t="s">
@@ -2082,13 +2244,13 @@
       <c r="C23" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="80">
+      <c r="E23" s="72">
         <v>41455</v>
       </c>
-      <c r="F23" s="81">
+      <c r="F23" s="73">
         <v>14</v>
       </c>
-      <c r="G23" s="82">
+      <c r="G23" s="74">
         <v>11411.131242740999</v>
       </c>
       <c r="H23" s="16" t="s">
@@ -2105,13 +2267,13 @@
       <c r="C24" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="80">
+      <c r="E24" s="72">
         <v>41820</v>
       </c>
-      <c r="F24" s="81">
+      <c r="F24" s="73">
         <v>12</v>
       </c>
-      <c r="G24" s="82">
+      <c r="G24" s="74">
         <v>-24123.412579436208</v>
       </c>
       <c r="H24" s="16" t="s">
@@ -2128,13 +2290,13 @@
       <c r="C25" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="80">
+      <c r="E25" s="72">
         <v>41820</v>
       </c>
-      <c r="F25" s="81">
+      <c r="F25" s="73">
         <v>15</v>
       </c>
-      <c r="G25" s="82">
+      <c r="G25" s="74">
         <v>22988.900889967637</v>
       </c>
       <c r="H25" s="16" t="s">
@@ -2151,13 +2313,13 @@
       <c r="C26" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="80">
+      <c r="E26" s="72">
         <v>42185</v>
       </c>
-      <c r="F26" s="81">
+      <c r="F26" s="73">
         <v>12</v>
       </c>
-      <c r="G26" s="82">
+      <c r="G26" s="74">
         <v>-3992.881022615536</v>
       </c>
       <c r="H26" s="16" t="s">
@@ -2174,13 +2336,13 @@
       <c r="C27" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="80">
+      <c r="E27" s="72">
         <v>42185</v>
       </c>
-      <c r="F27" s="81">
+      <c r="F27" s="73">
         <v>16</v>
       </c>
-      <c r="G27" s="82">
+      <c r="G27" s="74">
         <v>37695.495737535522</v>
       </c>
       <c r="H27" s="16" t="s">
@@ -2197,13 +2359,13 @@
       <c r="C28" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="80">
+      <c r="E28" s="72">
         <v>42551</v>
       </c>
-      <c r="F28" s="81">
+      <c r="F28" s="73">
         <v>12</v>
       </c>
-      <c r="G28" s="82">
+      <c r="G28" s="74">
         <v>64561.454423674113</v>
       </c>
       <c r="H28" s="16" t="s">
@@ -2220,13 +2382,13 @@
       <c r="C29" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="80">
+      <c r="E29" s="72">
         <v>42551</v>
       </c>
-      <c r="F29" s="81">
+      <c r="F29" s="73">
         <v>17</v>
       </c>
-      <c r="G29" s="82">
+      <c r="G29" s="74">
         <v>30782.682681195311</v>
       </c>
       <c r="H29" s="16" t="s">
@@ -2243,13 +2405,13 @@
       <c r="C30" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="80">
+      <c r="E30" s="72">
         <v>42551</v>
       </c>
-      <c r="F30" s="81">
+      <c r="F30" s="73">
         <v>13</v>
       </c>
-      <c r="G30" s="82">
+      <c r="G30" s="74">
         <v>395.83388704318935</v>
       </c>
       <c r="H30" s="16" t="s">
@@ -2266,13 +2428,13 @@
       <c r="C31" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="80">
+      <c r="E31" s="72">
         <v>42916</v>
       </c>
-      <c r="F31" s="81">
+      <c r="F31" s="73">
         <v>13</v>
       </c>
-      <c r="G31" s="82">
+      <c r="G31" s="74">
         <v>44401.435605347389</v>
       </c>
       <c r="H31" s="16" t="s">
@@ -2289,13 +2451,13 @@
       <c r="C32" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="80">
+      <c r="E32" s="72">
         <v>42916</v>
       </c>
-      <c r="F32" s="81">
+      <c r="F32" s="73">
         <v>18</v>
       </c>
-      <c r="G32" s="82">
+      <c r="G32" s="74">
         <v>-56178.162355375789</v>
       </c>
       <c r="H32" s="16" t="s">
@@ -2312,13 +2474,13 @@
       <c r="C33" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="80">
+      <c r="E33" s="72">
         <v>43281</v>
       </c>
-      <c r="F33" s="81">
+      <c r="F33" s="73">
         <v>14</v>
       </c>
-      <c r="G33" s="82">
+      <c r="G33" s="74">
         <v>10.333333333333334</v>
       </c>
       <c r="H33" s="16" t="s">
@@ -2335,13 +2497,13 @@
       <c r="C34" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="80">
+      <c r="E34" s="72">
         <v>43281</v>
       </c>
-      <c r="F34" s="81">
+      <c r="F34" s="73">
         <v>14</v>
       </c>
-      <c r="G34" s="82">
+      <c r="G34" s="74">
         <v>17678.091</v>
       </c>
       <c r="H34" s="16" t="s">
@@ -2358,13 +2520,13 @@
       <c r="C35" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="80">
+      <c r="E35" s="72">
         <v>43281</v>
       </c>
-      <c r="F35" s="81">
+      <c r="F35" s="73">
         <v>19</v>
       </c>
-      <c r="G35" s="82">
+      <c r="G35" s="74">
         <v>32701.368632707774</v>
       </c>
       <c r="H35" s="16" t="s">
@@ -2381,13 +2543,13 @@
       <c r="C36" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="80">
+      <c r="E36" s="72">
         <v>43646</v>
       </c>
-      <c r="F36" s="81">
+      <c r="F36" s="73">
         <v>15</v>
       </c>
-      <c r="G36" s="82">
+      <c r="G36" s="74">
         <v>62219.612597130901</v>
       </c>
       <c r="H36" s="16" t="s">
@@ -2404,13 +2566,13 @@
       <c r="C37" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="80">
+      <c r="E37" s="72">
         <v>43646</v>
       </c>
-      <c r="F37" s="81">
-        <v>20</v>
-      </c>
-      <c r="G37" s="82">
+      <c r="F37" s="73">
+        <v>20</v>
+      </c>
+      <c r="G37" s="74">
         <v>35104.149822408785</v>
       </c>
       <c r="H37" s="16" t="s">
@@ -2427,13 +2589,13 @@
       <c r="C38" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="80">
+      <c r="E38" s="72">
         <v>38533</v>
       </c>
-      <c r="F38" s="81">
+      <c r="F38" s="73">
         <v>2</v>
       </c>
-      <c r="G38" s="82">
+      <c r="G38" s="74">
         <v>7026.8460512668544</v>
       </c>
       <c r="H38" s="16" t="s">
@@ -2450,13 +2612,13 @@
       <c r="C39" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="80">
+      <c r="E39" s="72">
         <v>38533</v>
       </c>
-      <c r="F39" s="81">
+      <c r="F39" s="73">
         <v>2</v>
       </c>
-      <c r="G39" s="82">
+      <c r="G39" s="74">
         <v>10151</v>
       </c>
       <c r="H39" s="16" t="s">
@@ -2473,13 +2635,13 @@
       <c r="C40" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="80">
+      <c r="E40" s="72">
         <v>39263</v>
       </c>
-      <c r="F40" s="81">
+      <c r="F40" s="73">
         <v>4</v>
       </c>
-      <c r="G40" s="82">
+      <c r="G40" s="74">
         <v>0</v>
       </c>
       <c r="H40" s="16" t="s">
@@ -2496,13 +2658,13 @@
       <c r="C41" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="80">
+      <c r="E41" s="72">
         <v>39263</v>
       </c>
-      <c r="F41" s="81">
+      <c r="F41" s="73">
         <v>7</v>
       </c>
-      <c r="G41" s="82">
+      <c r="G41" s="74">
         <v>-37694.551953741022</v>
       </c>
       <c r="H41" s="16" t="s">
@@ -2519,13 +2681,13 @@
       <c r="C42" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E42" s="80">
+      <c r="E42" s="72">
         <v>39263</v>
       </c>
-      <c r="F42" s="81">
+      <c r="F42" s="73">
         <v>8</v>
       </c>
-      <c r="G42" s="82">
+      <c r="G42" s="74">
         <v>8762.4038867765103</v>
       </c>
       <c r="H42" s="16" t="s">
@@ -2542,13 +2704,13 @@
       <c r="C43" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="80">
+      <c r="E43" s="72">
         <v>39994</v>
       </c>
-      <c r="F43" s="81">
+      <c r="F43" s="73">
         <v>7</v>
       </c>
-      <c r="G43" s="82">
+      <c r="G43" s="74">
         <v>86230.747262005054</v>
       </c>
       <c r="H43" s="16" t="s">
@@ -2565,13 +2727,13 @@
       <c r="C44" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E44" s="80">
+      <c r="E44" s="72">
         <v>39994</v>
       </c>
-      <c r="F44" s="81">
+      <c r="F44" s="73">
         <v>10</v>
       </c>
-      <c r="G44" s="82">
+      <c r="G44" s="74">
         <v>51468.579439252338</v>
       </c>
       <c r="H44" s="16" t="s">
@@ -2588,13 +2750,13 @@
       <c r="C45" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="80">
+      <c r="E45" s="72">
         <v>40359</v>
       </c>
-      <c r="F45" s="81">
+      <c r="F45" s="73">
         <v>7</v>
       </c>
-      <c r="G45" s="82">
+      <c r="G45" s="74">
         <v>62028.326145983068</v>
       </c>
       <c r="H45" s="16" t="s">
@@ -2611,13 +2773,13 @@
       <c r="C46" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="80">
+      <c r="E46" s="72">
         <v>40359</v>
       </c>
-      <c r="F46" s="81">
+      <c r="F46" s="73">
         <v>11</v>
       </c>
-      <c r="G46" s="82">
+      <c r="G46" s="74">
         <v>40618.315378240797</v>
       </c>
       <c r="H46" s="16" t="s">
@@ -2634,13 +2796,13 @@
       <c r="C47" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="80">
+      <c r="E47" s="72">
         <v>40724</v>
       </c>
-      <c r="F47" s="81">
+      <c r="F47" s="73">
         <v>7</v>
       </c>
-      <c r="G47" s="82">
+      <c r="G47" s="74">
         <v>-104932.00135317998</v>
       </c>
       <c r="H47" s="16" t="s">
@@ -2657,13 +2819,13 @@
       <c r="C48" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E48" s="80">
+      <c r="E48" s="72">
         <v>40724</v>
       </c>
-      <c r="F48" s="81">
+      <c r="F48" s="73">
         <v>12</v>
       </c>
-      <c r="G48" s="82">
+      <c r="G48" s="74">
         <v>27999.249862107004</v>
       </c>
       <c r="H48" s="16" t="s">
@@ -2680,13 +2842,13 @@
       <c r="C49" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="80">
+      <c r="E49" s="72">
         <v>41090</v>
       </c>
-      <c r="F49" s="81">
+      <c r="F49" s="73">
         <v>9</v>
       </c>
-      <c r="G49" s="82">
+      <c r="G49" s="74">
         <v>59842.718459857999</v>
       </c>
       <c r="H49" s="16" t="s">
@@ -2703,13 +2865,13 @@
       <c r="C50" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="80">
+      <c r="E50" s="72">
         <v>41090</v>
       </c>
-      <c r="F50" s="81">
+      <c r="F50" s="73">
         <v>9</v>
       </c>
-      <c r="G50" s="82">
+      <c r="G50" s="74">
         <v>-14592.812150055992</v>
       </c>
       <c r="H50" s="16" t="s">
@@ -2726,13 +2888,13 @@
       <c r="C51" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="80">
+      <c r="E51" s="72">
         <v>41090</v>
       </c>
-      <c r="F51" s="81">
+      <c r="F51" s="73">
         <v>13</v>
       </c>
-      <c r="G51" s="82">
+      <c r="G51" s="74">
         <v>55724.747740667975</v>
       </c>
       <c r="H51" s="16" t="s">
@@ -2749,13 +2911,13 @@
       <c r="C52" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E52" s="80">
+      <c r="E52" s="72">
         <v>41455</v>
       </c>
-      <c r="F52" s="81">
+      <c r="F52" s="73">
         <v>10</v>
       </c>
-      <c r="G52" s="82">
+      <c r="G52" s="74">
         <v>38563.829406329409</v>
       </c>
       <c r="H52" s="16" t="s">
@@ -2772,13 +2934,13 @@
       <c r="C53" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E53" s="80">
+      <c r="E53" s="72">
         <v>41455</v>
       </c>
-      <c r="F53" s="81">
+      <c r="F53" s="73">
         <v>14</v>
       </c>
-      <c r="G53" s="82">
+      <c r="G53" s="74">
         <v>14952.868757259001</v>
       </c>
       <c r="H53" s="16" t="s">
@@ -2795,13 +2957,13 @@
       <c r="C54" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E54" s="80">
+      <c r="E54" s="72">
         <v>41820</v>
       </c>
-      <c r="F54" s="81">
+      <c r="F54" s="73">
         <v>12</v>
       </c>
-      <c r="G54" s="82">
+      <c r="G54" s="74">
         <v>-31595.587420563792</v>
       </c>
       <c r="H54" s="16" t="s">
@@ -2818,13 +2980,13 @@
       <c r="C55" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="80">
+      <c r="E55" s="72">
         <v>41820</v>
       </c>
-      <c r="F55" s="81">
+      <c r="F55" s="73">
         <v>15</v>
       </c>
-      <c r="G55" s="82">
+      <c r="G55" s="74">
         <v>30097.099110032363</v>
       </c>
       <c r="H55" s="16" t="s">
@@ -2841,13 +3003,13 @@
       <c r="C56" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E56" s="80">
+      <c r="E56" s="72">
         <v>42185</v>
       </c>
-      <c r="F56" s="81">
+      <c r="F56" s="73">
         <v>12</v>
       </c>
-      <c r="G56" s="82">
+      <c r="G56" s="74">
         <v>-5227.0442477876104</v>
       </c>
       <c r="H56" s="16" t="s">
@@ -2864,13 +3026,13 @@
       <c r="C57" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E57" s="80">
+      <c r="E57" s="72">
         <v>42185</v>
       </c>
-      <c r="F57" s="81">
+      <c r="F57" s="73">
         <v>16</v>
       </c>
-      <c r="G57" s="82">
+      <c r="G57" s="74">
         <v>49357.258589511752</v>
       </c>
       <c r="H57" s="16" t="s">
@@ -2887,13 +3049,13 @@
       <c r="C58" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="80">
+      <c r="E58" s="72">
         <v>42551</v>
       </c>
-      <c r="F58" s="81">
+      <c r="F58" s="73">
         <v>12</v>
       </c>
-      <c r="G58" s="82">
+      <c r="G58" s="74">
         <v>84544.54557632588</v>
       </c>
       <c r="H58" s="16" t="s">
@@ -2910,13 +3072,13 @@
       <c r="C59" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E59" s="80">
+      <c r="E59" s="72">
         <v>42551</v>
       </c>
-      <c r="F59" s="81">
+      <c r="F59" s="73">
         <v>17</v>
       </c>
-      <c r="G59" s="82">
+      <c r="G59" s="74">
         <v>40300.317318804686</v>
       </c>
       <c r="H59" s="16" t="s">
@@ -2933,13 +3095,13 @@
       <c r="C60" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E60" s="80">
+      <c r="E60" s="72">
         <v>42551</v>
       </c>
-      <c r="F60" s="81">
+      <c r="F60" s="73">
         <v>13</v>
       </c>
-      <c r="G60" s="82">
+      <c r="G60" s="74">
         <v>2510.1661129568106</v>
       </c>
       <c r="H60" s="16" t="s">
@@ -2956,13 +3118,13 @@
       <c r="C61" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E61" s="80">
+      <c r="E61" s="72">
         <v>42916</v>
       </c>
-      <c r="F61" s="81">
+      <c r="F61" s="73">
         <v>13</v>
       </c>
-      <c r="G61" s="82">
+      <c r="G61" s="74">
         <v>58149.564394652611</v>
       </c>
       <c r="H61" s="16" t="s">
@@ -2979,13 +3141,13 @@
       <c r="C62" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E62" s="80">
+      <c r="E62" s="72">
         <v>42916</v>
       </c>
-      <c r="F62" s="81">
+      <c r="F62" s="73">
         <v>18</v>
       </c>
-      <c r="G62" s="82">
+      <c r="G62" s="74">
         <v>-73569.837644624218</v>
       </c>
       <c r="H62" s="16" t="s">
@@ -3002,13 +3164,13 @@
       <c r="C63" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E63" s="80">
+      <c r="E63" s="72">
         <v>43281</v>
       </c>
-      <c r="F63" s="81">
+      <c r="F63" s="73">
         <v>14</v>
       </c>
-      <c r="G63" s="82">
+      <c r="G63" s="74">
         <v>82.666666666666671</v>
       </c>
       <c r="H63" s="16" t="s">
@@ -3025,13 +3187,13 @@
       <c r="C64" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E64" s="80">
+      <c r="E64" s="72">
         <v>43281</v>
       </c>
-      <c r="F64" s="81">
+      <c r="F64" s="73">
         <v>14</v>
       </c>
-      <c r="G64" s="82">
+      <c r="G64" s="74">
         <v>23148.909</v>
       </c>
       <c r="H64" s="16" t="s">
@@ -3048,13 +3210,13 @@
       <c r="C65" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E65" s="80">
+      <c r="E65" s="72">
         <v>43281</v>
       </c>
-      <c r="F65" s="81">
+      <c r="F65" s="73">
         <v>19</v>
       </c>
-      <c r="G65" s="82">
+      <c r="G65" s="74">
         <v>42825.631367292226</v>
       </c>
       <c r="H65" s="16" t="s">
@@ -3071,13 +3233,13 @@
       <c r="C66" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E66" s="80">
+      <c r="E66" s="72">
         <v>43646</v>
       </c>
-      <c r="F66" s="81">
+      <c r="F66" s="73">
         <v>15</v>
       </c>
-      <c r="G66" s="82">
+      <c r="G66" s="74">
         <v>81481.387402869092</v>
       </c>
       <c r="H66" s="16" t="s">
@@ -3094,13 +3256,13 @@
       <c r="C67" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E67" s="80">
+      <c r="E67" s="72">
         <v>43646</v>
       </c>
-      <c r="F67" s="81">
-        <v>20</v>
-      </c>
-      <c r="G67" s="82">
+      <c r="F67" s="73">
+        <v>20</v>
+      </c>
+      <c r="G67" s="74">
         <v>45967.850177591215</v>
       </c>
       <c r="H67" s="16" t="s">
@@ -3117,13 +3279,13 @@
       <c r="C68" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E68" s="80">
+      <c r="E68" s="72">
         <v>41820</v>
       </c>
-      <c r="F68" s="81">
+      <c r="F68" s="73">
         <v>12</v>
       </c>
-      <c r="G68" s="82">
+      <c r="G68" s="74">
         <v>0</v>
       </c>
       <c r="H68" s="16" t="s">
@@ -3140,13 +3302,13 @@
       <c r="C69" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E69" s="80">
+      <c r="E69" s="72">
         <v>41820</v>
       </c>
-      <c r="F69" s="81">
+      <c r="F69" s="73">
         <v>15</v>
       </c>
-      <c r="G69" s="82">
+      <c r="G69" s="74">
         <v>0</v>
       </c>
       <c r="H69" s="16" t="s">
@@ -3163,13 +3325,13 @@
       <c r="C70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E70" s="80">
+      <c r="E70" s="72">
         <v>42185</v>
       </c>
-      <c r="F70" s="81">
+      <c r="F70" s="73">
         <v>12</v>
       </c>
-      <c r="G70" s="82">
+      <c r="G70" s="74">
         <v>42</v>
       </c>
       <c r="H70" s="16" t="s">
@@ -3186,13 +3348,13 @@
       <c r="C71" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="80">
+      <c r="E71" s="72">
         <v>42185</v>
       </c>
-      <c r="F71" s="81">
+      <c r="F71" s="73">
         <v>16</v>
       </c>
-      <c r="G71" s="82">
+      <c r="G71" s="74">
         <v>7</v>
       </c>
       <c r="H71" s="16" t="s">
@@ -3209,13 +3371,13 @@
       <c r="C72" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E72" s="80">
+      <c r="E72" s="72">
         <v>42551</v>
       </c>
-      <c r="F72" s="81">
+      <c r="F72" s="73">
         <v>12</v>
       </c>
-      <c r="G72" s="82">
+      <c r="G72" s="74">
         <v>-56</v>
       </c>
       <c r="H72" s="16" t="s">
@@ -3232,13 +3394,13 @@
       <c r="C73" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E73" s="80">
+      <c r="E73" s="72">
         <v>42551</v>
       </c>
-      <c r="F73" s="81">
+      <c r="F73" s="73">
         <v>17</v>
       </c>
-      <c r="G73" s="82">
+      <c r="G73" s="74">
         <v>18</v>
       </c>
       <c r="H73" s="16" t="s">
@@ -3255,13 +3417,13 @@
       <c r="C74" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E74" s="80">
+      <c r="E74" s="72">
         <v>42551</v>
       </c>
-      <c r="F74" s="81">
+      <c r="F74" s="73">
         <v>13</v>
       </c>
-      <c r="G74" s="82">
+      <c r="G74" s="74">
         <v>206</v>
       </c>
       <c r="H74" s="16" t="s">
@@ -3278,13 +3440,13 @@
       <c r="C75" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E75" s="80">
+      <c r="E75" s="72">
         <v>42916</v>
       </c>
-      <c r="F75" s="81">
+      <c r="F75" s="73">
         <v>13</v>
       </c>
-      <c r="G75" s="82">
+      <c r="G75" s="74">
         <v>431</v>
       </c>
       <c r="H75" s="16" t="s">
@@ -3301,13 +3463,13 @@
       <c r="C76" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E76" s="80">
+      <c r="E76" s="72">
         <v>42916</v>
       </c>
-      <c r="F76" s="81">
+      <c r="F76" s="73">
         <v>18</v>
       </c>
-      <c r="G76" s="82">
+      <c r="G76" s="74">
         <v>-143</v>
       </c>
       <c r="H76" s="16" t="s">
@@ -3324,13 +3486,13 @@
       <c r="C77" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E77" s="80">
+      <c r="E77" s="72">
         <v>43281</v>
       </c>
-      <c r="F77" s="81">
+      <c r="F77" s="73">
         <v>14</v>
       </c>
-      <c r="G77" s="82">
+      <c r="G77" s="74">
         <v>-492</v>
       </c>
       <c r="H77" s="16" t="s">
@@ -3347,13 +3509,13 @@
       <c r="C78" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E78" s="80">
+      <c r="E78" s="72">
         <v>43281</v>
       </c>
-      <c r="F78" s="81">
+      <c r="F78" s="73">
         <v>19</v>
       </c>
-      <c r="G78" s="82">
+      <c r="G78" s="74">
         <v>142</v>
       </c>
       <c r="H78" s="16" t="s">
@@ -3370,13 +3532,13 @@
       <c r="C79" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E79" s="80">
+      <c r="E79" s="72">
         <v>43646</v>
       </c>
-      <c r="F79" s="81">
+      <c r="F79" s="73">
         <v>15</v>
       </c>
-      <c r="G79" s="82">
+      <c r="G79" s="74">
         <v>-79</v>
       </c>
       <c r="H79" s="16" t="s">
@@ -3393,13 +3555,13 @@
       <c r="C80" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E80" s="80">
+      <c r="E80" s="72">
         <v>43646</v>
       </c>
-      <c r="F80" s="81">
-        <v>20</v>
-      </c>
-      <c r="G80" s="82">
+      <c r="F80" s="73">
+        <v>20</v>
+      </c>
+      <c r="G80" s="74">
         <v>-209</v>
       </c>
       <c r="H80" s="16" t="s">
@@ -3416,13 +3578,13 @@
       <c r="C81" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E81" s="80">
+      <c r="E81" s="72">
         <v>41820</v>
       </c>
-      <c r="F81" s="81">
+      <c r="F81" s="73">
         <v>12</v>
       </c>
-      <c r="G81" s="82">
+      <c r="G81" s="74">
         <v>-25</v>
       </c>
       <c r="H81" s="16" t="s">
@@ -3439,13 +3601,13 @@
       <c r="C82" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E82" s="80">
+      <c r="E82" s="72">
         <v>41820</v>
       </c>
-      <c r="F82" s="81">
+      <c r="F82" s="73">
         <v>15</v>
       </c>
-      <c r="G82" s="82">
+      <c r="G82" s="74">
         <v>-4</v>
       </c>
       <c r="H82" s="16" t="s">
@@ -3462,13 +3624,13 @@
       <c r="C83" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E83" s="80">
+      <c r="E83" s="72">
         <v>42185</v>
       </c>
-      <c r="F83" s="81">
+      <c r="F83" s="73">
         <v>12</v>
       </c>
-      <c r="G83" s="82">
+      <c r="G83" s="74">
         <v>18</v>
       </c>
       <c r="H83" s="16" t="s">
@@ -3485,13 +3647,13 @@
       <c r="C84" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E84" s="80">
+      <c r="E84" s="72">
         <v>42185</v>
       </c>
-      <c r="F84" s="81">
+      <c r="F84" s="73">
         <v>16</v>
       </c>
-      <c r="G84" s="82">
+      <c r="G84" s="74">
         <v>-17</v>
       </c>
       <c r="H84" s="16" t="s">
@@ -3508,13 +3670,13 @@
       <c r="C85" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E85" s="80">
+      <c r="E85" s="72">
         <v>42551</v>
       </c>
-      <c r="F85" s="81">
+      <c r="F85" s="73">
         <v>12</v>
       </c>
-      <c r="G85" s="82">
+      <c r="G85" s="74">
         <v>-130</v>
       </c>
       <c r="H85" s="16" t="s">
@@ -3531,13 +3693,13 @@
       <c r="C86" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E86" s="80">
+      <c r="E86" s="72">
         <v>42551</v>
       </c>
-      <c r="F86" s="81">
+      <c r="F86" s="73">
         <v>17</v>
       </c>
-      <c r="G86" s="82">
+      <c r="G86" s="74">
         <v>87</v>
       </c>
       <c r="H86" s="16" t="s">
@@ -3554,13 +3716,13 @@
       <c r="C87" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E87" s="80">
+      <c r="E87" s="72">
         <v>42551</v>
       </c>
-      <c r="F87" s="81">
+      <c r="F87" s="73">
         <v>13</v>
       </c>
-      <c r="G87" s="82">
+      <c r="G87" s="74">
         <v>667</v>
       </c>
       <c r="H87" s="16" t="s">
@@ -3577,13 +3739,13 @@
       <c r="C88" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E88" s="80">
+      <c r="E88" s="72">
         <v>42916</v>
       </c>
-      <c r="F88" s="81">
+      <c r="F88" s="73">
         <v>13</v>
       </c>
-      <c r="G88" s="82">
+      <c r="G88" s="74">
         <v>781</v>
       </c>
       <c r="H88" s="16" t="s">
@@ -3600,13 +3762,13 @@
       <c r="C89" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E89" s="80">
+      <c r="E89" s="72">
         <v>42916</v>
       </c>
-      <c r="F89" s="81">
+      <c r="F89" s="73">
         <v>18</v>
       </c>
-      <c r="G89" s="82">
+      <c r="G89" s="74">
         <v>-486</v>
       </c>
       <c r="H89" s="16" t="s">
@@ -3623,13 +3785,13 @@
       <c r="C90" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E90" s="80">
+      <c r="E90" s="72">
         <v>43281</v>
       </c>
-      <c r="F90" s="81">
+      <c r="F90" s="73">
         <v>14</v>
       </c>
-      <c r="G90" s="82">
+      <c r="G90" s="74">
         <v>-1029</v>
       </c>
       <c r="H90" s="16" t="s">
@@ -3646,13 +3808,13 @@
       <c r="C91" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E91" s="80">
+      <c r="E91" s="72">
         <v>43281</v>
       </c>
-      <c r="F91" s="81">
+      <c r="F91" s="73">
         <v>19</v>
       </c>
-      <c r="G91" s="82">
+      <c r="G91" s="74">
         <v>418</v>
       </c>
       <c r="H91" s="16" t="s">
@@ -3669,13 +3831,13 @@
       <c r="C92" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E92" s="80">
+      <c r="E92" s="72">
         <v>43646</v>
       </c>
-      <c r="F92" s="81">
+      <c r="F92" s="73">
         <v>15</v>
       </c>
-      <c r="G92" s="82">
+      <c r="G92" s="74">
         <v>15</v>
       </c>
       <c r="H92" s="16" t="s">
@@ -3692,13 +3854,13 @@
       <c r="C93" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E93" s="80">
+      <c r="E93" s="72">
         <v>43646</v>
       </c>
-      <c r="F93" s="81">
-        <v>20</v>
-      </c>
-      <c r="G93" s="82">
+      <c r="F93" s="73">
+        <v>20</v>
+      </c>
+      <c r="G93" s="74">
         <v>-11</v>
       </c>
       <c r="H93" s="16" t="s">
@@ -3747,46 +3909,46 @@
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1"/>
     <row r="4" spans="1:11">
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="28" t="s">
+      <c r="H4" s="46"/>
+      <c r="I4" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="50" t="s">
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3794,33 +3956,33 @@
       <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="28">
         <v>38533</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="30">
         <v>2</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="45">
         <v>12392</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="45">
         <f>$F6*I6/$K6</f>
         <v>5365.1539487331456</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="45">
         <f>$F6*J6/$K6</f>
         <v>7026.8460512668544</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="29" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3828,33 +3990,33 @@
       <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="28">
         <v>38533</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="33">
         <v>2</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="32">
         <v>10151</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="45">
         <f t="shared" ref="G7:G35" si="0">$F7*I7/$K7</f>
         <v>0</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="45">
         <f t="shared" ref="H7:H35" si="1">$F7*J7/$K7</f>
         <v>10151</v>
       </c>
-      <c r="I7" s="38">
-        <v>0</v>
-      </c>
-      <c r="J7" s="39">
+      <c r="I7" s="34">
+        <v>0</v>
+      </c>
+      <c r="J7" s="35">
         <v>5528</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="35">
         <v>5528</v>
       </c>
     </row>
@@ -3862,33 +4024,33 @@
       <c r="B8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="28">
         <v>39263</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="33">
         <v>4</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="35">
         <v>15928</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="45">
         <f t="shared" si="0"/>
         <v>15928</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="32">
         <v>4513</v>
       </c>
-      <c r="J8" s="38">
-        <v>0</v>
-      </c>
-      <c r="K8" s="39">
+      <c r="J8" s="34">
+        <v>0</v>
+      </c>
+      <c r="K8" s="35">
         <v>4513</v>
       </c>
     </row>
@@ -3896,33 +4058,33 @@
       <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="28">
         <v>39263</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="33">
         <v>7</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="36">
         <v>-66478</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="45">
         <f t="shared" si="0"/>
         <v>-28783.448046258982</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="45">
         <f t="shared" si="1"/>
         <v>-37694.551953741022</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="36">
         <v>-4942</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="36">
         <v>-6472</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="36">
         <v>-11414</v>
       </c>
     </row>
@@ -3930,33 +4092,33 @@
       <c r="B10" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="28">
         <v>39263</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="33">
         <v>8</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="35">
         <v>15455</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="45">
         <f t="shared" si="0"/>
         <v>6692.5961132234897</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="45">
         <f t="shared" si="1"/>
         <v>8762.4038867765103</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="32">
         <v>1025</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="35">
         <v>1342</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="35">
         <v>2367</v>
       </c>
     </row>
@@ -3964,33 +4126,33 @@
       <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="28">
         <v>39994</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="33">
         <v>7</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="35">
         <v>152089</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="45">
         <f t="shared" si="0"/>
         <v>65852.428697250522</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="45">
         <f t="shared" si="1"/>
         <v>86230.747262005054</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="35">
         <v>11307</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="35">
         <v>14806</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="35">
         <v>26114</v>
       </c>
     </row>
@@ -3998,33 +4160,33 @@
       <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="28">
         <v>39994</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="33">
         <v>10</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="35">
         <v>90777</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="45">
         <f t="shared" si="0"/>
         <v>39308.420560747662</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="45">
         <f t="shared" si="1"/>
         <v>51468.579439252338</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="35">
         <v>5004</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="35">
         <v>6552</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="35">
         <v>11556</v>
       </c>
     </row>
@@ -4032,33 +4194,33 @@
       <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="28">
         <v>40359</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="33">
         <v>7</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="35">
         <v>109397</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="45">
         <f t="shared" si="0"/>
         <v>47368.673854016932</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="45">
         <f t="shared" si="1"/>
         <v>62028.326145983068</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="35">
         <v>8133</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="35">
         <v>10650</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="35">
         <v>18783</v>
       </c>
     </row>
@@ -4066,33 +4228,33 @@
       <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="28">
         <v>40359</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="33">
         <v>11</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="35">
         <v>71629</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="45">
         <f t="shared" si="0"/>
         <v>31019.164437078252</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="45">
         <f t="shared" si="1"/>
         <v>40618.315378240797</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="35">
         <v>3658</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="35">
         <v>4790</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="35">
         <v>8447</v>
       </c>
     </row>
@@ -4100,33 +4262,33 @@
       <c r="B15" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="28">
         <v>40724</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="33">
         <v>7</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="36">
         <v>-185071</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="45">
         <f t="shared" si="0"/>
         <v>-80133.174591685805</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="45">
         <f t="shared" si="1"/>
         <v>-104932.00135317998</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="36">
         <v>-13759</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="36">
         <v>-18017</v>
       </c>
-      <c r="K15" s="40">
+      <c r="K15" s="36">
         <v>-31777</v>
       </c>
     </row>
@@ -4134,33 +4296,33 @@
       <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="28">
         <v>40724</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="33">
         <v>12</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="35">
         <v>49380</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="45">
         <f t="shared" si="0"/>
         <v>21380.750137892996</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="45">
         <f t="shared" si="1"/>
         <v>27999.249862107004</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="35">
         <v>2355</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="35">
         <v>3084</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16" s="35">
         <v>5439</v>
       </c>
     </row>
@@ -4168,33 +4330,33 @@
       <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="28">
         <v>41090</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="33">
         <v>9</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="35">
         <v>105548</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="45">
         <f t="shared" si="0"/>
         <v>45698.075914800655</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="45">
         <f t="shared" si="1"/>
         <v>59842.718459857999</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="35">
         <v>6342</v>
       </c>
-      <c r="J17" s="39">
+      <c r="J17" s="35">
         <v>8305</v>
       </c>
-      <c r="K17" s="39">
+      <c r="K17" s="35">
         <v>14648</v>
       </c>
     </row>
@@ -4202,33 +4364,33 @@
       <c r="B18" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="28">
         <v>41090</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="33">
         <v>9</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="36">
         <v>-25741</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G18" s="45">
         <f t="shared" si="0"/>
         <v>-11148.187849944008</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H18" s="45">
         <f t="shared" si="1"/>
         <v>-14592.812150055992</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="36">
         <v>-1547</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="36">
         <v>-2025</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="36">
         <v>-3572</v>
       </c>
     </row>
@@ -4236,33 +4398,33 @@
       <c r="B19" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="28">
         <v>41090</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="33">
         <v>13</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="32">
         <v>98281</v>
       </c>
-      <c r="G19" s="49">
+      <c r="G19" s="45">
         <f t="shared" si="0"/>
         <v>42556.252259332025</v>
       </c>
-      <c r="H19" s="49">
+      <c r="H19" s="45">
         <f t="shared" si="1"/>
         <v>55724.747740667975</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="35">
         <v>4408</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="35">
         <v>5772</v>
       </c>
-      <c r="K19" s="39">
+      <c r="K19" s="35">
         <v>10180</v>
       </c>
     </row>
@@ -4270,33 +4432,33 @@
       <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="28">
         <v>41455</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="33">
         <v>10</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="35">
         <v>68015</v>
       </c>
-      <c r="G20" s="49">
+      <c r="G20" s="45">
         <f t="shared" si="0"/>
         <v>29451.170593670595</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="45">
         <f t="shared" si="1"/>
         <v>38563.829406329409</v>
       </c>
-      <c r="I20" s="39">
+      <c r="I20" s="35">
         <v>3749</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="35">
         <v>4909</v>
       </c>
-      <c r="K20" s="39">
+      <c r="K20" s="35">
         <v>8658</v>
       </c>
     </row>
@@ -4304,33 +4466,33 @@
       <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="28">
         <v>41455</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="33">
         <v>14</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="35">
         <v>26364</v>
       </c>
-      <c r="G21" s="49">
+      <c r="G21" s="45">
         <f t="shared" si="0"/>
         <v>11411.131242740999</v>
       </c>
-      <c r="H21" s="49">
+      <c r="H21" s="45">
         <f t="shared" si="1"/>
         <v>14952.868757259001</v>
       </c>
-      <c r="I21" s="39">
+      <c r="I21" s="35">
         <v>1118</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="35">
         <v>1465</v>
       </c>
-      <c r="K21" s="39">
+      <c r="K21" s="35">
         <v>2583</v>
       </c>
     </row>
@@ -4338,33 +4500,33 @@
       <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="28">
         <v>41820</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="33">
         <v>12</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="36">
         <v>-55719</v>
       </c>
-      <c r="G22" s="49">
+      <c r="G22" s="45">
         <f t="shared" si="0"/>
         <v>-24123.412579436208</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H22" s="45">
         <f t="shared" si="1"/>
         <v>-31595.587420563792</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="36">
         <v>-2657</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="36">
         <v>-3480</v>
       </c>
-      <c r="K22" s="40">
+      <c r="K22" s="36">
         <v>-6137</v>
       </c>
     </row>
@@ -4372,33 +4534,33 @@
       <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="28">
         <v>41820</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="33">
         <v>15</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="35">
         <v>53086</v>
       </c>
-      <c r="G23" s="49">
+      <c r="G23" s="45">
         <f t="shared" si="0"/>
         <v>22988.900889967637</v>
       </c>
-      <c r="H23" s="49">
+      <c r="H23" s="45">
         <f t="shared" si="1"/>
         <v>30097.099110032363</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="32">
         <v>2141</v>
       </c>
-      <c r="J23" s="39">
+      <c r="J23" s="35">
         <v>2803</v>
       </c>
-      <c r="K23" s="39">
+      <c r="K23" s="35">
         <v>4944</v>
       </c>
     </row>
@@ -4406,33 +4568,33 @@
       <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="28">
         <v>42185</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="33">
         <v>12</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="36">
         <v>-9229</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24" s="45">
         <f t="shared" si="0"/>
         <v>-3992.881022615536</v>
       </c>
-      <c r="H24" s="49">
+      <c r="H24" s="45">
         <f t="shared" si="1"/>
         <v>-5227.0442477876104</v>
       </c>
-      <c r="I24" s="41">
+      <c r="I24" s="37">
         <v>-440</v>
       </c>
-      <c r="J24" s="41">
+      <c r="J24" s="37">
         <v>-576</v>
       </c>
-      <c r="K24" s="40">
+      <c r="K24" s="36">
         <v>-1017</v>
       </c>
     </row>
@@ -4440,33 +4602,33 @@
       <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="28">
         <v>42185</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="33">
         <v>16</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="35">
         <v>87064</v>
       </c>
-      <c r="G25" s="49">
+      <c r="G25" s="45">
         <f t="shared" si="0"/>
         <v>37695.495737535522</v>
       </c>
-      <c r="H25" s="49">
+      <c r="H25" s="45">
         <f t="shared" si="1"/>
         <v>49357.258589511752</v>
       </c>
-      <c r="I25" s="39">
+      <c r="I25" s="35">
         <v>3352</v>
       </c>
-      <c r="J25" s="39">
+      <c r="J25" s="35">
         <v>4389</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K25" s="35">
         <v>7742</v>
       </c>
     </row>
@@ -4474,33 +4636,33 @@
       <c r="B26" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="28">
         <v>42551</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="33">
         <v>12</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="35">
         <v>149106</v>
       </c>
-      <c r="G26" s="49">
+      <c r="G26" s="45">
         <f t="shared" si="0"/>
         <v>64561.454423674113</v>
       </c>
-      <c r="H26" s="49">
+      <c r="H26" s="45">
         <f t="shared" si="1"/>
         <v>84544.54557632588</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="32">
         <v>7111</v>
       </c>
-      <c r="J26" s="39">
+      <c r="J26" s="35">
         <v>9312</v>
       </c>
-      <c r="K26" s="39">
+      <c r="K26" s="35">
         <v>16423</v>
       </c>
     </row>
@@ -4508,33 +4670,33 @@
       <c r="B27" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="28">
         <v>42551</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="33">
         <v>17</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="35">
         <v>71083</v>
       </c>
-      <c r="G27" s="49">
+      <c r="G27" s="45">
         <f t="shared" si="0"/>
         <v>30782.682681195311</v>
       </c>
-      <c r="H27" s="49">
+      <c r="H27" s="45">
         <f t="shared" si="1"/>
         <v>40300.317318804686</v>
       </c>
-      <c r="I27" s="39">
+      <c r="I27" s="35">
         <v>2623</v>
       </c>
-      <c r="J27" s="39">
+      <c r="J27" s="35">
         <v>3434</v>
       </c>
-      <c r="K27" s="39">
+      <c r="K27" s="35">
         <v>6057</v>
       </c>
     </row>
@@ -4542,33 +4704,33 @@
       <c r="B28" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="28">
         <v>42551</v>
       </c>
-      <c r="E28" s="37">
+      <c r="E28" s="33">
         <v>13</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="35">
         <v>2906</v>
       </c>
-      <c r="G28" s="49">
+      <c r="G28" s="45">
         <f t="shared" si="0"/>
         <v>395.83388704318935</v>
       </c>
-      <c r="H28" s="49">
+      <c r="H28" s="45">
         <f t="shared" si="1"/>
         <v>2510.1661129568106</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="34">
         <v>41</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="34">
         <v>260</v>
       </c>
-      <c r="K28" s="42">
+      <c r="K28" s="38">
         <v>301</v>
       </c>
     </row>
@@ -4576,33 +4738,33 @@
       <c r="B29" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="28">
         <v>42916</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="33">
         <v>13</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="32">
         <v>102551</v>
       </c>
-      <c r="G29" s="49">
+      <c r="G29" s="45">
         <f t="shared" si="0"/>
         <v>44401.435605347389</v>
       </c>
-      <c r="H29" s="49">
+      <c r="H29" s="45">
         <f t="shared" si="1"/>
         <v>58149.564394652611</v>
       </c>
-      <c r="I29" s="39">
+      <c r="I29" s="35">
         <v>4599</v>
       </c>
-      <c r="J29" s="39">
+      <c r="J29" s="35">
         <v>6023</v>
       </c>
-      <c r="K29" s="39">
+      <c r="K29" s="35">
         <v>10622</v>
       </c>
     </row>
@@ -4610,33 +4772,33 @@
       <c r="B30" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="28">
         <v>42916</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="33">
         <v>18</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="36">
         <v>-129748</v>
       </c>
-      <c r="G30" s="49">
+      <c r="G30" s="45">
         <f t="shared" si="0"/>
         <v>-56178.162355375789</v>
       </c>
-      <c r="H30" s="49">
+      <c r="H30" s="45">
         <f t="shared" si="1"/>
         <v>-73569.837644624218</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="36">
         <v>-4603</v>
       </c>
-      <c r="J30" s="40">
+      <c r="J30" s="36">
         <v>-6028</v>
       </c>
-      <c r="K30" s="40">
+      <c r="K30" s="36">
         <v>-10631</v>
       </c>
     </row>
@@ -4644,33 +4806,33 @@
       <c r="B31" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="28">
         <v>43281</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="33">
         <v>14</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="34">
         <v>93</v>
       </c>
-      <c r="G31" s="49">
+      <c r="G31" s="45">
         <f t="shared" si="0"/>
         <v>10.333333333333334</v>
       </c>
-      <c r="H31" s="49">
+      <c r="H31" s="45">
         <f t="shared" si="1"/>
         <v>82.666666666666671</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31" s="34">
         <v>1</v>
       </c>
-      <c r="J31" s="38">
+      <c r="J31" s="34">
         <v>8</v>
       </c>
-      <c r="K31" s="38">
+      <c r="K31" s="34">
         <v>9</v>
       </c>
     </row>
@@ -4678,33 +4840,33 @@
       <c r="B32" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="28">
         <v>43281</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="33">
         <v>14</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="35">
         <v>40827</v>
       </c>
-      <c r="G32" s="49">
+      <c r="G32" s="45">
         <f t="shared" si="0"/>
         <v>17678.091</v>
       </c>
-      <c r="H32" s="49">
+      <c r="H32" s="45">
         <f t="shared" si="1"/>
         <v>23148.909</v>
       </c>
-      <c r="I32" s="39">
+      <c r="I32" s="35">
         <v>1732</v>
       </c>
-      <c r="J32" s="39">
+      <c r="J32" s="35">
         <v>2268</v>
       </c>
-      <c r="K32" s="39">
+      <c r="K32" s="35">
         <v>4000</v>
       </c>
     </row>
@@ -4712,33 +4874,33 @@
       <c r="B33" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="28">
         <v>43281</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="33">
         <v>19</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="35">
         <v>75527</v>
       </c>
-      <c r="G33" s="49">
+      <c r="G33" s="45">
         <f t="shared" si="0"/>
         <v>32701.368632707774</v>
       </c>
-      <c r="H33" s="49">
+      <c r="H33" s="45">
         <f t="shared" si="1"/>
         <v>42825.631367292226</v>
       </c>
-      <c r="I33" s="39">
+      <c r="I33" s="35">
         <v>2584</v>
       </c>
-      <c r="J33" s="39">
+      <c r="J33" s="35">
         <v>3384</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="35">
         <v>5968</v>
       </c>
     </row>
@@ -4746,33 +4908,33 @@
       <c r="B34" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="28">
         <v>43646</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="33">
         <v>15</v>
       </c>
-      <c r="F34" s="39">
+      <c r="F34" s="35">
         <v>143701</v>
       </c>
-      <c r="G34" s="49">
+      <c r="G34" s="45">
         <f t="shared" si="0"/>
         <v>62219.612597130901</v>
       </c>
-      <c r="H34" s="49">
+      <c r="H34" s="45">
         <f t="shared" si="1"/>
         <v>81481.387402869092</v>
       </c>
-      <c r="I34" s="39">
+      <c r="I34" s="35">
         <v>5795</v>
       </c>
-      <c r="J34" s="39">
+      <c r="J34" s="35">
         <v>7589</v>
       </c>
-      <c r="K34" s="39">
+      <c r="K34" s="35">
         <v>13384</v>
       </c>
     </row>
@@ -4780,33 +4942,33 @@
       <c r="B35" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="28">
         <v>43646</v>
       </c>
-      <c r="E35" s="37">
-        <v>20</v>
-      </c>
-      <c r="F35" s="39">
+      <c r="E35" s="33">
+        <v>20</v>
+      </c>
+      <c r="F35" s="35">
         <v>81072</v>
       </c>
-      <c r="G35" s="49">
+      <c r="G35" s="45">
         <f t="shared" si="0"/>
         <v>35104.149822408785</v>
       </c>
-      <c r="H35" s="49">
+      <c r="H35" s="45">
         <f t="shared" si="1"/>
         <v>45967.850177591215</v>
       </c>
-      <c r="I35" s="39">
+      <c r="I35" s="35">
         <v>2682</v>
       </c>
-      <c r="J35" s="39">
+      <c r="J35" s="35">
         <v>3512</v>
       </c>
-      <c r="K35" s="39">
+      <c r="K35" s="35">
         <v>6194</v>
       </c>
     </row>
@@ -4814,86 +4976,86 @@
       <c r="B36" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="39" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="44">
+      <c r="F36" s="40">
         <v>121037</v>
       </c>
-      <c r="G36" s="44">
+      <c r="G36" s="40">
         <f>F36*I37/K37</f>
         <v>52473.486503098909</v>
       </c>
-      <c r="H36" s="44">
+      <c r="H36" s="40">
         <f>F36*J37/K37</f>
         <v>68563.513496901098</v>
       </c>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="42" t="s">
         <v>44</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="47">
+      <c r="F37" s="43">
         <v>1281472</v>
       </c>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="35" t="s">
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="J37" s="47">
+      <c r="J37" s="43">
         <v>77414</v>
       </c>
-      <c r="K37" s="47">
+      <c r="K37" s="43">
         <v>136661</v>
       </c>
     </row>
     <row r="38" spans="2:11">
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="44" t="s">
         <v>46</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="39">
+      <c r="F38" s="35">
         <v>654614</v>
       </c>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39">
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35">
         <v>26344</v>
       </c>
-      <c r="J38" s="39">
+      <c r="J38" s="35">
         <v>34306</v>
       </c>
-      <c r="K38" s="39">
+      <c r="K38" s="35">
         <v>60650</v>
       </c>
     </row>
     <row r="39" spans="2:11">
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="44" t="s">
         <v>47</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="39">
+      <c r="F39" s="35">
         <v>626858</v>
       </c>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39">
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35">
         <v>32903</v>
       </c>
-      <c r="J39" s="39">
+      <c r="J39" s="35">
         <v>43108</v>
       </c>
-      <c r="K39" s="39">
+      <c r="K39" s="35">
         <v>76011</v>
       </c>
     </row>
@@ -4932,47 +5094,47 @@
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1"/>
     <row r="6" spans="1:10">
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="53" t="s">
+      <c r="G6" s="84"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="53"/>
+      <c r="J6" s="84"/>
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1">
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55" t="s">
+      <c r="C7" s="82"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="55" t="s">
+      <c r="J7" s="47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21.75" customHeight="1">
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="48" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="9"/>
@@ -4984,413 +5146,413 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="21.75" customHeight="1">
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="50">
         <v>41820</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="51">
         <v>12</v>
       </c>
-      <c r="F9" s="73">
-        <v>0</v>
-      </c>
-      <c r="G9" s="73">
+      <c r="F9" s="65">
+        <v>0</v>
+      </c>
+      <c r="G9" s="65">
         <v>-25</v>
       </c>
-      <c r="H9" s="73">
+      <c r="H9" s="65">
         <f>F9+G9</f>
         <v>-25</v>
       </c>
-      <c r="I9" s="74">
-        <v>0</v>
-      </c>
-      <c r="J9" s="72">
+      <c r="I9" s="66">
+        <v>0</v>
+      </c>
+      <c r="J9" s="64">
         <v>-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="35.25" customHeight="1">
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="50">
         <v>41820</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="51">
         <v>15</v>
       </c>
-      <c r="F10" s="60">
-        <v>0</v>
-      </c>
-      <c r="G10" s="61">
+      <c r="F10" s="52">
+        <v>0</v>
+      </c>
+      <c r="G10" s="53">
         <v>-4</v>
       </c>
-      <c r="H10" s="73">
+      <c r="H10" s="65">
         <f t="shared" ref="H10:H21" si="0">F10+G10</f>
         <v>-4</v>
       </c>
-      <c r="I10" s="74">
-        <v>0</v>
-      </c>
-      <c r="J10" s="62">
+      <c r="I10" s="66">
+        <v>0</v>
+      </c>
+      <c r="J10" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21.75" customHeight="1">
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="50">
         <v>42185</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="51">
         <v>12</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="52">
         <v>42</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="52">
         <v>18</v>
       </c>
-      <c r="H11" s="73">
+      <c r="H11" s="65">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I11" s="74">
+      <c r="I11" s="66">
         <v>5</v>
       </c>
-      <c r="J11" s="63">
+      <c r="J11" s="55">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1">
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="50">
         <v>42185</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="51">
         <v>16</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="52">
         <v>7</v>
       </c>
-      <c r="G12" s="61">
+      <c r="G12" s="53">
         <v>-17</v>
       </c>
-      <c r="H12" s="73">
+      <c r="H12" s="65">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
-      <c r="I12" s="74">
+      <c r="I12" s="66">
         <v>1</v>
       </c>
-      <c r="J12" s="62">
+      <c r="J12" s="54">
         <v>-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21.75" customHeight="1">
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="50">
         <v>42551</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="51">
         <v>12</v>
       </c>
-      <c r="F13" s="61">
+      <c r="F13" s="53">
         <v>-56</v>
       </c>
-      <c r="G13" s="61">
+      <c r="G13" s="53">
         <v>-130</v>
       </c>
-      <c r="H13" s="73">
+      <c r="H13" s="65">
         <f t="shared" si="0"/>
         <v>-186</v>
       </c>
-      <c r="I13" s="74">
+      <c r="I13" s="66">
         <v>-6</v>
       </c>
-      <c r="J13" s="62">
+      <c r="J13" s="54">
         <v>-14</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21.75" customHeight="1">
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="50">
         <v>42551</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="51">
         <v>17</v>
       </c>
-      <c r="F14" s="60">
+      <c r="F14" s="52">
         <v>18</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="52">
         <v>87</v>
       </c>
-      <c r="H14" s="73">
+      <c r="H14" s="65">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="I14" s="74">
+      <c r="I14" s="66">
         <v>2</v>
       </c>
-      <c r="J14" s="63">
+      <c r="J14" s="55">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21.75" customHeight="1">
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="50">
         <v>42551</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="51">
         <v>13</v>
       </c>
-      <c r="F15" s="60">
+      <c r="F15" s="52">
         <v>206</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="52">
         <v>667</v>
       </c>
-      <c r="H15" s="73">
+      <c r="H15" s="65">
         <f t="shared" si="0"/>
         <v>873</v>
       </c>
-      <c r="I15" s="74">
-        <v>21</v>
-      </c>
-      <c r="J15" s="63">
+      <c r="I15" s="66">
+        <v>21</v>
+      </c>
+      <c r="J15" s="55">
         <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21.75" customHeight="1">
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="50">
         <v>42916</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="51">
         <v>13</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="52">
         <v>431</v>
       </c>
-      <c r="G16" s="60">
+      <c r="G16" s="52">
         <v>781</v>
       </c>
-      <c r="H16" s="73">
+      <c r="H16" s="65">
         <f t="shared" si="0"/>
         <v>1212</v>
       </c>
-      <c r="I16" s="74">
+      <c r="I16" s="66">
         <v>45</v>
       </c>
-      <c r="J16" s="63">
+      <c r="J16" s="55">
         <v>81</v>
       </c>
     </row>
     <row r="17" spans="3:10" ht="33.75" customHeight="1">
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="50">
         <v>42916</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="51">
         <v>18</v>
       </c>
-      <c r="F17" s="61">
+      <c r="F17" s="53">
         <v>-143</v>
       </c>
-      <c r="G17" s="61">
+      <c r="G17" s="53">
         <v>-486</v>
       </c>
-      <c r="H17" s="73">
+      <c r="H17" s="65">
         <f t="shared" si="0"/>
         <v>-629</v>
       </c>
-      <c r="I17" s="74">
+      <c r="I17" s="66">
         <v>-12</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="54">
         <v>-40</v>
       </c>
     </row>
     <row r="18" spans="3:10" ht="21.75" customHeight="1">
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="50">
         <v>43281</v>
       </c>
-      <c r="E18" s="59">
+      <c r="E18" s="51">
         <v>14</v>
       </c>
-      <c r="F18" s="61">
+      <c r="F18" s="53">
         <v>-492</v>
       </c>
-      <c r="G18" s="64">
+      <c r="G18" s="56">
         <v>-1029</v>
       </c>
-      <c r="H18" s="73">
+      <c r="H18" s="65">
         <f t="shared" si="0"/>
         <v>-1521</v>
       </c>
-      <c r="I18" s="74">
+      <c r="I18" s="66">
         <v>-48</v>
       </c>
-      <c r="J18" s="62">
+      <c r="J18" s="54">
         <v>-101</v>
       </c>
     </row>
     <row r="19" spans="3:10" ht="21.75" customHeight="1">
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="58">
+      <c r="D19" s="50">
         <v>43281</v>
       </c>
-      <c r="E19" s="59">
+      <c r="E19" s="51">
         <v>19</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F19" s="57">
         <v>142</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G19" s="52">
         <v>418</v>
       </c>
-      <c r="H19" s="73">
+      <c r="H19" s="65">
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="I19" s="75">
+      <c r="I19" s="67">
         <v>11</v>
       </c>
-      <c r="J19" s="63">
+      <c r="J19" s="55">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="21.75" customHeight="1">
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="50">
         <v>43646</v>
       </c>
-      <c r="E20" s="59">
+      <c r="E20" s="51">
         <v>15</v>
       </c>
-      <c r="F20" s="61">
+      <c r="F20" s="53">
         <v>-79</v>
       </c>
-      <c r="G20" s="60">
+      <c r="G20" s="52">
         <v>15</v>
       </c>
-      <c r="H20" s="73">
+      <c r="H20" s="65">
         <f t="shared" si="0"/>
         <v>-64</v>
       </c>
-      <c r="I20" s="74">
+      <c r="I20" s="66">
         <v>-7</v>
       </c>
-      <c r="J20" s="63">
+      <c r="J20" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="3:10" ht="21.75" customHeight="1">
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D21" s="50">
         <v>43646</v>
       </c>
-      <c r="E21" s="59">
-        <v>20</v>
-      </c>
-      <c r="F21" s="67">
+      <c r="E21" s="51">
+        <v>20</v>
+      </c>
+      <c r="F21" s="59">
         <v>-209</v>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="59">
         <v>-11</v>
       </c>
-      <c r="H21" s="73">
+      <c r="H21" s="65">
         <f t="shared" si="0"/>
         <v>-220</v>
       </c>
-      <c r="I21" s="76">
+      <c r="I21" s="68">
         <v>-16</v>
       </c>
-      <c r="J21" s="68">
+      <c r="J21" s="60">
         <v>-1</v>
       </c>
     </row>
     <row r="22" spans="3:10" ht="21.75" customHeight="1">
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="61" t="s">
         <v>62</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="85">
+      <c r="F22" s="77">
         <v>-134</v>
       </c>
-      <c r="G22" s="85">
+      <c r="G22" s="77">
         <v>285</v>
       </c>
-      <c r="H22" s="84"/>
-      <c r="I22" s="70" t="s">
+      <c r="H22" s="76"/>
+      <c r="I22" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="J22" s="71" t="s">
+      <c r="J22" s="63" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="3:10" ht="21.75" customHeight="1">
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="61">
+      <c r="F23" s="53">
         <v>-283</v>
       </c>
-      <c r="G23" s="61">
+      <c r="G23" s="53">
         <v>-510</v>
       </c>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61">
+      <c r="H23" s="53"/>
+      <c r="I23" s="53">
         <v>-23</v>
       </c>
-      <c r="J23" s="62">
+      <c r="J23" s="54">
         <v>-46</v>
       </c>
     </row>
     <row r="24" spans="3:10" ht="21.75" customHeight="1">
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="49" t="s">
         <v>66</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="60">
+      <c r="F24" s="52">
         <v>149</v>
       </c>
-      <c r="G24" s="60">
+      <c r="G24" s="52">
         <v>795</v>
       </c>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60">
+      <c r="H24" s="52"/>
+      <c r="I24" s="52">
         <v>17</v>
       </c>
-      <c r="J24" s="63">
+      <c r="J24" s="55">
         <v>79</v>
       </c>
     </row>
@@ -5499,4 +5661,131 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151E9179-5643-45FC-9DA2-8BE40F7B0B4F}">
+  <dimension ref="A2:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4">
+        <v>2.5</v>
+      </c>
+      <c r="C4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="87">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>2.5</v>
+      </c>
+      <c r="C5">
+        <f>20*3 - 2.5*19</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="87">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f>20*3-50</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/inputs/data_raw/Data_SJPF_planInfo_AV2019.xlsx
+++ b/inputs/data_raw/Data_SJPF_planInfo_AV2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_SJ\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B775F06-4247-4AEB-9287-78C959E0090B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095F8FC7-09D0-4C68-AE85-D528BB358F7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init_unrecReturn" sheetId="12" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Init_unrecReturn_raw" sheetId="19" r:id="rId5"/>
     <sheet name="benfactor" sheetId="21" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Init_amort!$C$7:$J$93</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1374,16 +1377,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>391558</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>67429</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>315358</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>10279</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1406,7 +1409,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4572000" y="2286000"/>
+          <a:off x="3886200" y="3562350"/>
           <a:ext cx="7401958" cy="5401429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1774,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FFFA73-2D4A-4AA3-8BAA-C57267D0CB48}">
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1891,17 +1894,16 @@
     </row>
     <row r="8" spans="1:10" ht="13.5" customHeight="1">
       <c r="C8" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="69">
-        <v>38533</v>
-      </c>
-      <c r="F8" s="70">
-        <v>2</v>
-      </c>
-      <c r="G8" s="22">
-        <v>5365.1539487331456</v>
+        <v>72</v>
+      </c>
+      <c r="E8" s="72">
+        <v>39994</v>
+      </c>
+      <c r="F8" s="73">
+        <v>7</v>
+      </c>
+      <c r="G8" s="74">
+        <v>86230.747262005054</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>20</v>
@@ -1915,17 +1917,16 @@
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
       <c r="C9" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="71">
-        <v>38533</v>
-      </c>
-      <c r="F9" s="70">
-        <v>2</v>
-      </c>
-      <c r="G9" s="23">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="E9" s="72">
+        <v>42551</v>
+      </c>
+      <c r="F9" s="73">
+        <v>12</v>
+      </c>
+      <c r="G9" s="74">
+        <v>84544.54557632588</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>20</v>
@@ -1939,17 +1940,16 @@
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
       <c r="C10" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="71">
-        <v>39263</v>
-      </c>
-      <c r="F10" s="70">
-        <v>4</v>
-      </c>
-      <c r="G10" s="23">
-        <v>15928</v>
+        <v>72</v>
+      </c>
+      <c r="E10" s="72">
+        <v>43646</v>
+      </c>
+      <c r="F10" s="73">
+        <v>15</v>
+      </c>
+      <c r="G10" s="74">
+        <v>81481.387402869092</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>20</v>
@@ -1967,13 +1967,13 @@
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="71">
-        <v>39263</v>
+        <v>39994</v>
       </c>
       <c r="F11" s="70">
         <v>7</v>
       </c>
       <c r="G11" s="23">
-        <v>-28783.448046258982</v>
+        <v>65852.428697250522</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>20</v>
@@ -1989,15 +1989,14 @@
       <c r="C12" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="71">
-        <v>39263</v>
-      </c>
-      <c r="F12" s="70">
-        <v>8</v>
-      </c>
-      <c r="G12" s="23">
-        <v>6692.5961132234897</v>
+      <c r="E12" s="72">
+        <v>42551</v>
+      </c>
+      <c r="F12" s="73">
+        <v>12</v>
+      </c>
+      <c r="G12" s="74">
+        <v>64561.454423674113</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>20</v>
@@ -2013,15 +2012,14 @@
       <c r="C13" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="71">
-        <v>39994</v>
-      </c>
-      <c r="F13" s="70">
-        <v>7</v>
-      </c>
-      <c r="G13" s="23">
-        <v>65852.428697250522</v>
+      <c r="E13" s="72">
+        <v>43646</v>
+      </c>
+      <c r="F13" s="73">
+        <v>15</v>
+      </c>
+      <c r="G13" s="74">
+        <v>62219.612597130901</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>20</v>
@@ -2035,16 +2033,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="C14" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" s="72">
-        <v>39994</v>
+        <v>40359</v>
       </c>
       <c r="F14" s="73">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G14" s="74">
-        <v>39308.420560747662</v>
+        <v>62028.326145983068</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>20</v>
@@ -2058,16 +2056,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="C15" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" s="72">
-        <v>40359</v>
+        <v>41090</v>
       </c>
       <c r="F15" s="73">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G15" s="74">
-        <v>47368.673854016932</v>
+        <v>59842.718459857999</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>20</v>
@@ -2081,16 +2079,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="C16" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E16" s="72">
-        <v>40359</v>
+        <v>42916</v>
       </c>
       <c r="F16" s="73">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G16" s="74">
-        <v>31019.164437078252</v>
+        <v>58149.564394652611</v>
       </c>
       <c r="H16" s="16" t="s">
         <v>20</v>
@@ -2104,16 +2102,16 @@
     </row>
     <row r="17" spans="3:10">
       <c r="C17" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" s="72">
-        <v>40724</v>
+        <v>41090</v>
       </c>
       <c r="F17" s="73">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G17" s="74">
-        <v>-80133.174591685805</v>
+        <v>55724.747740667975</v>
       </c>
       <c r="H17" s="16" t="s">
         <v>20</v>
@@ -2127,16 +2125,16 @@
     </row>
     <row r="18" spans="3:10">
       <c r="C18" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" s="72">
-        <v>40724</v>
+        <v>39994</v>
       </c>
       <c r="F18" s="73">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G18" s="74">
-        <v>21380.750137892996</v>
+        <v>51468.579439252338</v>
       </c>
       <c r="H18" s="16" t="s">
         <v>20</v>
@@ -2150,16 +2148,16 @@
     </row>
     <row r="19" spans="3:10">
       <c r="C19" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19" s="72">
-        <v>41090</v>
+        <v>42185</v>
       </c>
       <c r="F19" s="73">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G19" s="74">
-        <v>45698.075914800655</v>
+        <v>49357.258589511752</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>20</v>
@@ -2176,13 +2174,13 @@
         <v>71</v>
       </c>
       <c r="E20" s="72">
-        <v>41090</v>
+        <v>40359</v>
       </c>
       <c r="F20" s="73">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G20" s="74">
-        <v>-11148.187849944008</v>
+        <v>47368.673854016932</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>20</v>
@@ -2196,16 +2194,16 @@
     </row>
     <row r="21" spans="3:10">
       <c r="C21" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" s="72">
-        <v>41090</v>
+        <v>43646</v>
       </c>
       <c r="F21" s="73">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G21" s="74">
-        <v>42556.252259332025</v>
+        <v>45967.850177591215</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>20</v>
@@ -2222,13 +2220,13 @@
         <v>71</v>
       </c>
       <c r="E22" s="72">
-        <v>41455</v>
+        <v>41090</v>
       </c>
       <c r="F22" s="73">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="74">
-        <v>29451.170593670595</v>
+        <v>45698.075914800655</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>20</v>
@@ -2245,13 +2243,13 @@
         <v>71</v>
       </c>
       <c r="E23" s="72">
-        <v>41455</v>
+        <v>42916</v>
       </c>
       <c r="F23" s="73">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" s="74">
-        <v>11411.131242740999</v>
+        <v>44401.435605347389</v>
       </c>
       <c r="H23" s="16" t="s">
         <v>20</v>
@@ -2265,16 +2263,16 @@
     </row>
     <row r="24" spans="3:10">
       <c r="C24" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24" s="72">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="F24" s="73">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G24" s="74">
-        <v>-24123.412579436208</v>
+        <v>42825.631367292226</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>20</v>
@@ -2291,13 +2289,13 @@
         <v>71</v>
       </c>
       <c r="E25" s="72">
-        <v>41820</v>
+        <v>41090</v>
       </c>
       <c r="F25" s="73">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G25" s="74">
-        <v>22988.900889967637</v>
+        <v>42556.252259332025</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>20</v>
@@ -2311,16 +2309,16 @@
     </row>
     <row r="26" spans="3:10">
       <c r="C26" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E26" s="72">
-        <v>42185</v>
+        <v>40359</v>
       </c>
       <c r="F26" s="73">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" s="74">
-        <v>-3992.881022615536</v>
+        <v>40618.315378240797</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>20</v>
@@ -2334,16 +2332,16 @@
     </row>
     <row r="27" spans="3:10">
       <c r="C27" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E27" s="72">
-        <v>42185</v>
+        <v>42551</v>
       </c>
       <c r="F27" s="73">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G27" s="74">
-        <v>37695.495737535522</v>
+        <v>40300.317318804686</v>
       </c>
       <c r="H27" s="16" t="s">
         <v>20</v>
@@ -2360,13 +2358,13 @@
         <v>71</v>
       </c>
       <c r="E28" s="72">
-        <v>42551</v>
+        <v>39994</v>
       </c>
       <c r="F28" s="73">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G28" s="74">
-        <v>64561.454423674113</v>
+        <v>39308.420560747662</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>20</v>
@@ -2380,16 +2378,16 @@
     </row>
     <row r="29" spans="3:10">
       <c r="C29" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E29" s="72">
-        <v>42551</v>
+        <v>41455</v>
       </c>
       <c r="F29" s="73">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G29" s="74">
-        <v>30782.682681195311</v>
+        <v>38563.829406329409</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>20</v>
@@ -2406,13 +2404,13 @@
         <v>71</v>
       </c>
       <c r="E30" s="72">
-        <v>42551</v>
+        <v>42185</v>
       </c>
       <c r="F30" s="73">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G30" s="74">
-        <v>395.83388704318935</v>
+        <v>37695.495737535522</v>
       </c>
       <c r="H30" s="16" t="s">
         <v>20</v>
@@ -2429,13 +2427,13 @@
         <v>71</v>
       </c>
       <c r="E31" s="72">
-        <v>42916</v>
+        <v>43646</v>
       </c>
       <c r="F31" s="73">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G31" s="74">
-        <v>44401.435605347389</v>
+        <v>35104.149822408785</v>
       </c>
       <c r="H31" s="16" t="s">
         <v>20</v>
@@ -2452,13 +2450,13 @@
         <v>71</v>
       </c>
       <c r="E32" s="72">
-        <v>42916</v>
+        <v>43281</v>
       </c>
       <c r="F32" s="73">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G32" s="74">
-        <v>-56178.162355375789</v>
+        <v>32701.368632707774</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>20</v>
@@ -2475,13 +2473,13 @@
         <v>71</v>
       </c>
       <c r="E33" s="72">
-        <v>43281</v>
+        <v>40359</v>
       </c>
       <c r="F33" s="73">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G33" s="74">
-        <v>10.333333333333334</v>
+        <v>31019.164437078252</v>
       </c>
       <c r="H33" s="16" t="s">
         <v>20</v>
@@ -2498,13 +2496,13 @@
         <v>71</v>
       </c>
       <c r="E34" s="72">
-        <v>43281</v>
+        <v>42551</v>
       </c>
       <c r="F34" s="73">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G34" s="74">
-        <v>17678.091</v>
+        <v>30782.682681195311</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>20</v>
@@ -2518,16 +2516,16 @@
     </row>
     <row r="35" spans="3:10">
       <c r="C35" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E35" s="72">
-        <v>43281</v>
+        <v>41820</v>
       </c>
       <c r="F35" s="73">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G35" s="74">
-        <v>32701.368632707774</v>
+        <v>30097.099110032363</v>
       </c>
       <c r="H35" s="16" t="s">
         <v>20</v>
@@ -2544,13 +2542,13 @@
         <v>71</v>
       </c>
       <c r="E36" s="72">
-        <v>43646</v>
+        <v>41455</v>
       </c>
       <c r="F36" s="73">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G36" s="74">
-        <v>62219.612597130901</v>
+        <v>29451.170593670595</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>20</v>
@@ -2564,16 +2562,16 @@
     </row>
     <row r="37" spans="3:10">
       <c r="C37" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E37" s="72">
-        <v>43646</v>
+        <v>40724</v>
       </c>
       <c r="F37" s="73">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G37" s="74">
-        <v>35104.149822408785</v>
+        <v>27999.249862107004</v>
       </c>
       <c r="H37" s="16" t="s">
         <v>20</v>
@@ -2590,13 +2588,13 @@
         <v>72</v>
       </c>
       <c r="E38" s="72">
-        <v>38533</v>
+        <v>43281</v>
       </c>
       <c r="F38" s="73">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G38" s="74">
-        <v>7026.8460512668544</v>
+        <v>23148.909</v>
       </c>
       <c r="H38" s="16" t="s">
         <v>20</v>
@@ -2610,16 +2608,16 @@
     </row>
     <row r="39" spans="3:10">
       <c r="C39" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E39" s="72">
-        <v>38533</v>
+        <v>41820</v>
       </c>
       <c r="F39" s="73">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G39" s="74">
-        <v>10151</v>
+        <v>22988.900889967637</v>
       </c>
       <c r="H39" s="16" t="s">
         <v>20</v>
@@ -2633,16 +2631,16 @@
     </row>
     <row r="40" spans="3:10">
       <c r="C40" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E40" s="72">
-        <v>39263</v>
+        <v>40724</v>
       </c>
       <c r="F40" s="73">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G40" s="74">
-        <v>0</v>
+        <v>21380.750137892996</v>
       </c>
       <c r="H40" s="16" t="s">
         <v>20</v>
@@ -2656,16 +2654,16 @@
     </row>
     <row r="41" spans="3:10">
       <c r="C41" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E41" s="72">
-        <v>39263</v>
+        <v>43281</v>
       </c>
       <c r="F41" s="73">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G41" s="74">
-        <v>-37694.551953741022</v>
+        <v>17678.091</v>
       </c>
       <c r="H41" s="16" t="s">
         <v>20</v>
@@ -2679,16 +2677,17 @@
     </row>
     <row r="42" spans="3:10">
       <c r="C42" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="72">
+        <v>71</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="71">
         <v>39263</v>
       </c>
-      <c r="F42" s="73">
-        <v>8</v>
-      </c>
-      <c r="G42" s="74">
-        <v>8762.4038867765103</v>
+      <c r="F42" s="70">
+        <v>4</v>
+      </c>
+      <c r="G42" s="23">
+        <v>15928</v>
       </c>
       <c r="H42" s="16" t="s">
         <v>20</v>
@@ -2705,13 +2704,13 @@
         <v>72</v>
       </c>
       <c r="E43" s="72">
-        <v>39994</v>
+        <v>41455</v>
       </c>
       <c r="F43" s="73">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G43" s="74">
-        <v>86230.747262005054</v>
+        <v>14952.868757259001</v>
       </c>
       <c r="H43" s="16" t="s">
         <v>20</v>
@@ -2725,16 +2724,16 @@
     </row>
     <row r="44" spans="3:10">
       <c r="C44" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E44" s="72">
-        <v>39994</v>
+        <v>41455</v>
       </c>
       <c r="F44" s="73">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G44" s="74">
-        <v>51468.579439252338</v>
+        <v>11411.131242740999</v>
       </c>
       <c r="H44" s="16" t="s">
         <v>20</v>
@@ -2751,13 +2750,13 @@
         <v>72</v>
       </c>
       <c r="E45" s="72">
-        <v>40359</v>
+        <v>38533</v>
       </c>
       <c r="F45" s="73">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G45" s="74">
-        <v>62028.326145983068</v>
+        <v>10151</v>
       </c>
       <c r="H45" s="16" t="s">
         <v>20</v>
@@ -2774,13 +2773,13 @@
         <v>72</v>
       </c>
       <c r="E46" s="72">
-        <v>40359</v>
+        <v>39263</v>
       </c>
       <c r="F46" s="73">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G46" s="74">
-        <v>40618.315378240797</v>
+        <v>8762.4038867765103</v>
       </c>
       <c r="H46" s="16" t="s">
         <v>20</v>
@@ -2797,13 +2796,13 @@
         <v>72</v>
       </c>
       <c r="E47" s="72">
-        <v>40724</v>
+        <v>38533</v>
       </c>
       <c r="F47" s="73">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G47" s="74">
-        <v>-104932.00135317998</v>
+        <v>7026.8460512668544</v>
       </c>
       <c r="H47" s="16" t="s">
         <v>20</v>
@@ -2817,16 +2816,17 @@
     </row>
     <row r="48" spans="3:10">
       <c r="C48" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="72">
-        <v>40724</v>
-      </c>
-      <c r="F48" s="73">
-        <v>12</v>
-      </c>
-      <c r="G48" s="74">
-        <v>27999.249862107004</v>
+        <v>71</v>
+      </c>
+      <c r="D48" s="20"/>
+      <c r="E48" s="71">
+        <v>39263</v>
+      </c>
+      <c r="F48" s="70">
+        <v>8</v>
+      </c>
+      <c r="G48" s="23">
+        <v>6692.5961132234897</v>
       </c>
       <c r="H48" s="16" t="s">
         <v>20</v>
@@ -2840,16 +2840,17 @@
     </row>
     <row r="49" spans="3:10">
       <c r="C49" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="72">
-        <v>41090</v>
-      </c>
-      <c r="F49" s="73">
-        <v>9</v>
-      </c>
-      <c r="G49" s="74">
-        <v>59842.718459857999</v>
+        <v>71</v>
+      </c>
+      <c r="D49" s="21"/>
+      <c r="E49" s="69">
+        <v>38533</v>
+      </c>
+      <c r="F49" s="70">
+        <v>2</v>
+      </c>
+      <c r="G49" s="22">
+        <v>5365.1539487331456</v>
       </c>
       <c r="H49" s="16" t="s">
         <v>20</v>
@@ -2866,13 +2867,13 @@
         <v>72</v>
       </c>
       <c r="E50" s="72">
-        <v>41090</v>
+        <v>42551</v>
       </c>
       <c r="F50" s="73">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G50" s="74">
-        <v>-14592.812150055992</v>
+        <v>2510.1661129568106</v>
       </c>
       <c r="H50" s="16" t="s">
         <v>20</v>
@@ -2886,16 +2887,16 @@
     </row>
     <row r="51" spans="3:10">
       <c r="C51" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E51" s="72">
-        <v>41090</v>
+        <v>42916</v>
       </c>
       <c r="F51" s="73">
         <v>13</v>
       </c>
       <c r="G51" s="74">
-        <v>55724.747740667975</v>
+        <v>781</v>
       </c>
       <c r="H51" s="16" t="s">
         <v>20</v>
@@ -2909,16 +2910,16 @@
     </row>
     <row r="52" spans="3:10">
       <c r="C52" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E52" s="72">
-        <v>41455</v>
+        <v>42551</v>
       </c>
       <c r="F52" s="73">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G52" s="74">
-        <v>38563.829406329409</v>
+        <v>667</v>
       </c>
       <c r="H52" s="16" t="s">
         <v>20</v>
@@ -2932,16 +2933,16 @@
     </row>
     <row r="53" spans="3:10">
       <c r="C53" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E53" s="72">
-        <v>41455</v>
+        <v>42916</v>
       </c>
       <c r="F53" s="73">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G53" s="74">
-        <v>14952.868757259001</v>
+        <v>431</v>
       </c>
       <c r="H53" s="16" t="s">
         <v>20</v>
@@ -2955,16 +2956,16 @@
     </row>
     <row r="54" spans="3:10">
       <c r="C54" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E54" s="72">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="F54" s="73">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G54" s="74">
-        <v>-31595.587420563792</v>
+        <v>418</v>
       </c>
       <c r="H54" s="16" t="s">
         <v>20</v>
@@ -2978,16 +2979,16 @@
     </row>
     <row r="55" spans="3:10">
       <c r="C55" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E55" s="72">
-        <v>41820</v>
+        <v>42551</v>
       </c>
       <c r="F55" s="73">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G55" s="74">
-        <v>30097.099110032363</v>
+        <v>395.83388704318935</v>
       </c>
       <c r="H55" s="16" t="s">
         <v>20</v>
@@ -3001,16 +3002,16 @@
     </row>
     <row r="56" spans="3:10">
       <c r="C56" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E56" s="72">
-        <v>42185</v>
+        <v>42551</v>
       </c>
       <c r="F56" s="73">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" s="74">
-        <v>-5227.0442477876104</v>
+        <v>206</v>
       </c>
       <c r="H56" s="16" t="s">
         <v>20</v>
@@ -3024,16 +3025,16 @@
     </row>
     <row r="57" spans="3:10">
       <c r="C57" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E57" s="72">
-        <v>42185</v>
+        <v>43281</v>
       </c>
       <c r="F57" s="73">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G57" s="74">
-        <v>49357.258589511752</v>
+        <v>142</v>
       </c>
       <c r="H57" s="16" t="s">
         <v>20</v>
@@ -3047,16 +3048,16 @@
     </row>
     <row r="58" spans="3:10">
       <c r="C58" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E58" s="72">
         <v>42551</v>
       </c>
       <c r="F58" s="73">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G58" s="74">
-        <v>84544.54557632588</v>
+        <v>87</v>
       </c>
       <c r="H58" s="16" t="s">
         <v>20</v>
@@ -3073,13 +3074,13 @@
         <v>72</v>
       </c>
       <c r="E59" s="72">
-        <v>42551</v>
+        <v>43281</v>
       </c>
       <c r="F59" s="73">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G59" s="74">
-        <v>40300.317318804686</v>
+        <v>82.666666666666671</v>
       </c>
       <c r="H59" s="16" t="s">
         <v>20</v>
@@ -3093,16 +3094,16 @@
     </row>
     <row r="60" spans="3:10">
       <c r="C60" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E60" s="72">
-        <v>42551</v>
+        <v>42185</v>
       </c>
       <c r="F60" s="73">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G60" s="74">
-        <v>2510.1661129568106</v>
+        <v>42</v>
       </c>
       <c r="H60" s="16" t="s">
         <v>20</v>
@@ -3116,16 +3117,16 @@
     </row>
     <row r="61" spans="3:10">
       <c r="C61" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E61" s="72">
-        <v>42916</v>
+        <v>42551</v>
       </c>
       <c r="F61" s="73">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G61" s="74">
-        <v>58149.564394652611</v>
+        <v>18</v>
       </c>
       <c r="H61" s="16" t="s">
         <v>20</v>
@@ -3139,16 +3140,16 @@
     </row>
     <row r="62" spans="3:10">
       <c r="C62" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E62" s="72">
-        <v>42916</v>
+        <v>42185</v>
       </c>
       <c r="F62" s="73">
+        <v>12</v>
+      </c>
+      <c r="G62" s="74">
         <v>18</v>
-      </c>
-      <c r="G62" s="74">
-        <v>-73569.837644624218</v>
       </c>
       <c r="H62" s="16" t="s">
         <v>20</v>
@@ -3162,16 +3163,16 @@
     </row>
     <row r="63" spans="3:10">
       <c r="C63" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E63" s="72">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="F63" s="73">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G63" s="74">
-        <v>82.666666666666671</v>
+        <v>15</v>
       </c>
       <c r="H63" s="16" t="s">
         <v>20</v>
@@ -3185,7 +3186,7 @@
     </row>
     <row r="64" spans="3:10">
       <c r="C64" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E64" s="72">
         <v>43281</v>
@@ -3194,7 +3195,7 @@
         <v>14</v>
       </c>
       <c r="G64" s="74">
-        <v>23148.909</v>
+        <v>10.333333333333334</v>
       </c>
       <c r="H64" s="16" t="s">
         <v>20</v>
@@ -3208,16 +3209,16 @@
     </row>
     <row r="65" spans="3:10">
       <c r="C65" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E65" s="72">
-        <v>43281</v>
+        <v>42185</v>
       </c>
       <c r="F65" s="73">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G65" s="74">
-        <v>42825.631367292226</v>
+        <v>7</v>
       </c>
       <c r="H65" s="16" t="s">
         <v>20</v>
@@ -3231,16 +3232,17 @@
     </row>
     <row r="66" spans="3:10">
       <c r="C66" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E66" s="72">
-        <v>43646</v>
-      </c>
-      <c r="F66" s="73">
-        <v>15</v>
-      </c>
-      <c r="G66" s="74">
-        <v>81481.387402869092</v>
+        <v>71</v>
+      </c>
+      <c r="D66" s="20"/>
+      <c r="E66" s="71">
+        <v>38533</v>
+      </c>
+      <c r="F66" s="70">
+        <v>2</v>
+      </c>
+      <c r="G66" s="23">
+        <v>0</v>
       </c>
       <c r="H66" s="16" t="s">
         <v>20</v>
@@ -3257,13 +3259,13 @@
         <v>72</v>
       </c>
       <c r="E67" s="72">
-        <v>43646</v>
+        <v>39263</v>
       </c>
       <c r="F67" s="73">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G67" s="74">
-        <v>45967.850177591215</v>
+        <v>0</v>
       </c>
       <c r="H67" s="16" t="s">
         <v>20</v>
@@ -3323,16 +3325,16 @@
     </row>
     <row r="70" spans="3:10">
       <c r="C70" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E70" s="72">
-        <v>42185</v>
+        <v>41820</v>
       </c>
       <c r="F70" s="73">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G70" s="74">
-        <v>42</v>
+        <v>-4</v>
       </c>
       <c r="H70" s="16" t="s">
         <v>20</v>
@@ -3346,16 +3348,16 @@
     </row>
     <row r="71" spans="3:10">
       <c r="C71" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E71" s="72">
-        <v>42185</v>
+        <v>43646</v>
       </c>
       <c r="F71" s="73">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G71" s="74">
-        <v>7</v>
+        <v>-11</v>
       </c>
       <c r="H71" s="16" t="s">
         <v>20</v>
@@ -3369,16 +3371,16 @@
     </row>
     <row r="72" spans="3:10">
       <c r="C72" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E72" s="72">
-        <v>42551</v>
+        <v>42185</v>
       </c>
       <c r="F72" s="73">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G72" s="74">
-        <v>-56</v>
+        <v>-17</v>
       </c>
       <c r="H72" s="16" t="s">
         <v>20</v>
@@ -3392,16 +3394,16 @@
     </row>
     <row r="73" spans="3:10">
       <c r="C73" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E73" s="72">
-        <v>42551</v>
+        <v>41820</v>
       </c>
       <c r="F73" s="73">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G73" s="74">
-        <v>18</v>
+        <v>-25</v>
       </c>
       <c r="H73" s="16" t="s">
         <v>20</v>
@@ -3421,10 +3423,10 @@
         <v>42551</v>
       </c>
       <c r="F74" s="73">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G74" s="74">
-        <v>206</v>
+        <v>-56</v>
       </c>
       <c r="H74" s="16" t="s">
         <v>20</v>
@@ -3441,13 +3443,13 @@
         <v>74</v>
       </c>
       <c r="E75" s="72">
-        <v>42916</v>
+        <v>43646</v>
       </c>
       <c r="F75" s="73">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G75" s="74">
-        <v>431</v>
+        <v>-79</v>
       </c>
       <c r="H75" s="16" t="s">
         <v>20</v>
@@ -3461,16 +3463,16 @@
     </row>
     <row r="76" spans="3:10">
       <c r="C76" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E76" s="72">
-        <v>42916</v>
+        <v>42551</v>
       </c>
       <c r="F76" s="73">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G76" s="74">
-        <v>-143</v>
+        <v>-130</v>
       </c>
       <c r="H76" s="16" t="s">
         <v>20</v>
@@ -3487,13 +3489,13 @@
         <v>74</v>
       </c>
       <c r="E77" s="72">
-        <v>43281</v>
+        <v>42916</v>
       </c>
       <c r="F77" s="73">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G77" s="74">
-        <v>-492</v>
+        <v>-143</v>
       </c>
       <c r="H77" s="16" t="s">
         <v>20</v>
@@ -3510,13 +3512,13 @@
         <v>74</v>
       </c>
       <c r="E78" s="72">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="F78" s="73">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G78" s="74">
-        <v>142</v>
+        <v>-209</v>
       </c>
       <c r="H78" s="16" t="s">
         <v>20</v>
@@ -3530,16 +3532,16 @@
     </row>
     <row r="79" spans="3:10">
       <c r="C79" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E79" s="72">
-        <v>43646</v>
+        <v>42916</v>
       </c>
       <c r="F79" s="73">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G79" s="74">
-        <v>-79</v>
+        <v>-486</v>
       </c>
       <c r="H79" s="16" t="s">
         <v>20</v>
@@ -3556,13 +3558,13 @@
         <v>74</v>
       </c>
       <c r="E80" s="72">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="F80" s="73">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G80" s="74">
-        <v>-209</v>
+        <v>-492</v>
       </c>
       <c r="H80" s="16" t="s">
         <v>20</v>
@@ -3579,13 +3581,13 @@
         <v>73</v>
       </c>
       <c r="E81" s="72">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="F81" s="73">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G81" s="74">
-        <v>-25</v>
+        <v>-1029</v>
       </c>
       <c r="H81" s="16" t="s">
         <v>20</v>
@@ -3599,16 +3601,16 @@
     </row>
     <row r="82" spans="3:10">
       <c r="C82" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E82" s="72">
-        <v>41820</v>
+        <v>42185</v>
       </c>
       <c r="F82" s="73">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G82" s="74">
-        <v>-4</v>
+        <v>-3992.881022615536</v>
       </c>
       <c r="H82" s="16" t="s">
         <v>20</v>
@@ -3622,7 +3624,7 @@
     </row>
     <row r="83" spans="3:10">
       <c r="C83" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E83" s="72">
         <v>42185</v>
@@ -3631,7 +3633,7 @@
         <v>12</v>
       </c>
       <c r="G83" s="74">
-        <v>18</v>
+        <v>-5227.0442477876104</v>
       </c>
       <c r="H83" s="16" t="s">
         <v>20</v>
@@ -3645,16 +3647,16 @@
     </row>
     <row r="84" spans="3:10">
       <c r="C84" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E84" s="72">
-        <v>42185</v>
+        <v>41090</v>
       </c>
       <c r="F84" s="73">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G84" s="74">
-        <v>-17</v>
+        <v>-11148.187849944008</v>
       </c>
       <c r="H84" s="16" t="s">
         <v>20</v>
@@ -3668,16 +3670,16 @@
     </row>
     <row r="85" spans="3:10">
       <c r="C85" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E85" s="72">
-        <v>42551</v>
+        <v>41090</v>
       </c>
       <c r="F85" s="73">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G85" s="74">
-        <v>-130</v>
+        <v>-14592.812150055992</v>
       </c>
       <c r="H85" s="16" t="s">
         <v>20</v>
@@ -3691,16 +3693,16 @@
     </row>
     <row r="86" spans="3:10">
       <c r="C86" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E86" s="72">
-        <v>42551</v>
+        <v>41820</v>
       </c>
       <c r="F86" s="73">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G86" s="74">
-        <v>87</v>
+        <v>-24123.412579436208</v>
       </c>
       <c r="H86" s="16" t="s">
         <v>20</v>
@@ -3714,16 +3716,17 @@
     </row>
     <row r="87" spans="3:10">
       <c r="C87" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E87" s="72">
-        <v>42551</v>
-      </c>
-      <c r="F87" s="73">
-        <v>13</v>
-      </c>
-      <c r="G87" s="74">
-        <v>667</v>
+        <v>71</v>
+      </c>
+      <c r="D87" s="20"/>
+      <c r="E87" s="71">
+        <v>39263</v>
+      </c>
+      <c r="F87" s="70">
+        <v>7</v>
+      </c>
+      <c r="G87" s="23">
+        <v>-28783.448046258982</v>
       </c>
       <c r="H87" s="16" t="s">
         <v>20</v>
@@ -3737,16 +3740,16 @@
     </row>
     <row r="88" spans="3:10">
       <c r="C88" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E88" s="72">
-        <v>42916</v>
+        <v>41820</v>
       </c>
       <c r="F88" s="73">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G88" s="74">
-        <v>781</v>
+        <v>-31595.587420563792</v>
       </c>
       <c r="H88" s="16" t="s">
         <v>20</v>
@@ -3760,16 +3763,16 @@
     </row>
     <row r="89" spans="3:10">
       <c r="C89" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E89" s="72">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="F89" s="73">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G89" s="74">
-        <v>-486</v>
+        <v>-37694.551953741022</v>
       </c>
       <c r="H89" s="16" t="s">
         <v>20</v>
@@ -3783,16 +3786,16 @@
     </row>
     <row r="90" spans="3:10">
       <c r="C90" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E90" s="72">
-        <v>43281</v>
+        <v>42916</v>
       </c>
       <c r="F90" s="73">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G90" s="74">
-        <v>-1029</v>
+        <v>-56178.162355375789</v>
       </c>
       <c r="H90" s="16" t="s">
         <v>20</v>
@@ -3806,16 +3809,16 @@
     </row>
     <row r="91" spans="3:10">
       <c r="C91" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E91" s="72">
-        <v>43281</v>
+        <v>42916</v>
       </c>
       <c r="F91" s="73">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G91" s="74">
-        <v>418</v>
+        <v>-73569.837644624218</v>
       </c>
       <c r="H91" s="16" t="s">
         <v>20</v>
@@ -3829,16 +3832,16 @@
     </row>
     <row r="92" spans="3:10">
       <c r="C92" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E92" s="72">
-        <v>43646</v>
+        <v>40724</v>
       </c>
       <c r="F92" s="73">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G92" s="74">
-        <v>15</v>
+        <v>-80133.174591685805</v>
       </c>
       <c r="H92" s="16" t="s">
         <v>20</v>
@@ -3852,16 +3855,16 @@
     </row>
     <row r="93" spans="3:10">
       <c r="C93" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E93" s="72">
-        <v>43646</v>
+        <v>40724</v>
       </c>
       <c r="F93" s="73">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G93" s="74">
-        <v>-11</v>
+        <v>-104932.00135317998</v>
       </c>
       <c r="H93" s="16" t="s">
         <v>20</v>
@@ -3874,6 +3877,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C7:J93" xr:uid="{E7231748-F1B1-43D7-A8C5-88D9973FC356}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C8:J93">
+      <sortCondition descending="1" ref="G7:G93"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{FF57BA00-48A7-449C-B359-1F92FAAB0832}"/>
   </hyperlinks>
@@ -5667,8 +5675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151E9179-5643-45FC-9DA2-8BE40F7B0B4F}">
   <dimension ref="A2:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/inputs/data_raw/Data_SJPF_planInfo_AV2019.xlsx
+++ b/inputs/data_raw/Data_SJPF_planInfo_AV2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_SJ\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095F8FC7-09D0-4C68-AE85-D528BB358F7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E6E5CF-9F99-4F9E-9CA4-ACA50AFFA040}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init_unrecReturn" sheetId="12" r:id="rId1"/>
@@ -166,6 +166,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>orce</t>
     </r>
@@ -175,6 +176,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Date</t>
     </r>
@@ -184,6 +186,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Balance</t>
     </r>
@@ -193,6 +196,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Remaining </t>
     </r>
@@ -200,6 +204,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Period</t>
     </r>
@@ -209,6 +214,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Amortization Payment</t>
     </r>
@@ -218,6 +224,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Fire</t>
     </r>
@@ -227,6 +234,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Police</t>
     </r>
@@ -236,6 +244,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Total</t>
     </r>
@@ -245,6 +254,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Experience Loss</t>
     </r>
@@ -254,6 +264,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>$  2,922</t>
     </r>
@@ -263,6 +274,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>$  3,827</t>
     </r>
@@ -272,6 +284,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>$  6,749</t>
     </r>
@@ -281,6 +294,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Ben improvement</t>
     </r>
@@ -290,6 +304,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Ben Improvement</t>
     </r>
@@ -299,6 +314,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Experience Gain</t>
     </r>
@@ -308,6 +324,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Assumption Change</t>
     </r>
@@ -317,6 +334,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>SRBR Elimination</t>
     </r>
@@ -326,6 +344,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Measure F (Rehires)</t>
     </r>
@@ -335,6 +354,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Measure F (Classic/Fed)</t>
     </r>
@@ -344,6 +364,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>2020 UAL Payment</t>
     </r>
@@ -353,6 +374,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Total City</t>
     </r>
@@ -362,6 +384,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>$  59,247</t>
     </r>
@@ -371,6 +394,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Retirement</t>
     </r>
@@ -380,6 +404,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>COLA</t>
     </r>
@@ -392,6 +417,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Source</t>
     </r>
@@ -402,6 +428,7 @@
         <b/>
         <sz val="9"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Date</t>
     </r>
@@ -412,6 +439,7 @@
         <b/>
         <sz val="9"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Outstanding Balance</t>
     </r>
@@ -422,6 +450,7 @@
         <b/>
         <sz val="9"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Remaining </t>
     </r>
@@ -430,6 +459,7 @@
         <b/>
         <sz val="9"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Period</t>
     </r>
@@ -440,6 +470,7 @@
         <b/>
         <sz val="9"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Amortization Payment</t>
     </r>
@@ -450,6 +481,7 @@
         <b/>
         <sz val="9"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Fire</t>
     </r>
@@ -460,6 +492,7 @@
         <b/>
         <sz val="9"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Police</t>
     </r>
@@ -470,6 +503,7 @@
         <b/>
         <sz val="9"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Members and City</t>
     </r>
@@ -479,6 +513,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Experience Gain</t>
     </r>
@@ -488,6 +523,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Assumption Change</t>
     </r>
@@ -497,6 +533,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Measure F (Rehires)</t>
     </r>
@@ -506,6 +543,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Experience Loss</t>
     </r>
@@ -515,6 +553,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Assumption/Method Change</t>
     </r>
@@ -525,6 +564,7 @@
         <b/>
         <sz val="9"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Total Tier 2</t>
     </r>
@@ -535,6 +575,7 @@
         <b/>
         <sz val="9"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>$  (6)</t>
     </r>
@@ -545,6 +586,7 @@
         <b/>
         <sz val="9"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>$  33</t>
     </r>
@@ -554,6 +596,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Retirement</t>
     </r>
@@ -563,6 +606,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>COLA</t>
     </r>
@@ -710,6 +754,7 @@
     <font>
       <sz val="10.5"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -720,11 +765,13 @@
     <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1001,6 +1048,12 @@
     <xf numFmtId="6" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1024,12 +1077,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1687,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BFE154-32C8-48F8-AF28-84298376E385}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1722,7 +1769,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>2019630</v>
+        <v>2020630</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1735,7 +1782,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="C7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -1743,7 +1790,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="C8">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1751,7 +1798,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="C9">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1759,7 +1806,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="C10">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1777,7 +1824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FFFA73-2D4A-4AA3-8BAA-C57267D0CB48}">
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -3917,33 +3964,33 @@
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1"/>
     <row r="4" spans="1:11">
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="82" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="46" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="46"/>
-      <c r="I4" s="78" t="s">
+      <c r="I4" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="80"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="46" t="s">
         <v>69</v>
       </c>
@@ -5102,29 +5149,29 @@
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1"/>
     <row r="6" spans="1:10">
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="84"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="75"/>
-      <c r="I6" s="84" t="s">
+      <c r="I6" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="84"/>
+      <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1">
-      <c r="C7" s="82"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="85"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="47" t="s">
         <v>54</v>
       </c>
@@ -5698,7 +5745,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="78" t="s">
         <v>77</v>
       </c>
       <c r="B4">
@@ -5709,7 +5756,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="87">
+      <c r="A5" s="79">
         <v>20</v>
       </c>
       <c r="B5">
@@ -5770,7 +5817,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="87">
+      <c r="A13" s="79">
         <v>20</v>
       </c>
       <c r="B13">
